--- a/OUTPUT-FILES/NORMS/TODE_8.27.21_fornorms/rlne_sum-raw-ss-lookup-tabbed-grade.xlsx
+++ b/OUTPUT-FILES/NORMS/TODE_8.27.21_fornorms/rlne_sum-raw-ss-lookup-tabbed-grade.xlsx
@@ -387,7 +387,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4">
@@ -395,7 +395,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
@@ -435,7 +435,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10">
@@ -483,7 +483,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16">
@@ -667,7 +667,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="39">
@@ -675,7 +675,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="40">
@@ -715,7 +715,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="45">
@@ -723,7 +723,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="46">
@@ -763,7 +763,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="51">
@@ -771,7 +771,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="52">
@@ -811,7 +811,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="57">
@@ -819,7 +819,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="58">
@@ -859,7 +859,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="63">
@@ -867,7 +867,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="64">
@@ -907,7 +907,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="69">
@@ -915,7 +915,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="70">
@@ -955,7 +955,7 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="75">
@@ -963,7 +963,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="76">
@@ -971,7 +971,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="77">
@@ -1372,7 +1372,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4">
@@ -1380,7 +1380,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5">
@@ -1412,7 +1412,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9">
@@ -1444,7 +1444,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13">
@@ -1484,7 +1484,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18">
@@ -1516,7 +1516,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22">
@@ -1588,7 +1588,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31">
@@ -2349,7 +2349,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
@@ -2357,7 +2357,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4">
@@ -2381,7 +2381,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7">
@@ -2413,7 +2413,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11">
@@ -2437,7 +2437,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14">
@@ -2469,7 +2469,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18">
@@ -2501,7 +2501,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22">
@@ -2525,7 +2525,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25">
@@ -2557,7 +2557,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29">
@@ -2589,7 +2589,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33">
@@ -2909,7 +2909,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="73">
@@ -2949,7 +2949,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="78">
@@ -2981,7 +2981,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="82">
@@ -3021,7 +3021,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="87">
@@ -3029,7 +3029,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="88">
@@ -3061,7 +3061,7 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="92">
@@ -3069,7 +3069,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="93">
@@ -3101,7 +3101,7 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="97">
@@ -3109,7 +3109,7 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="98">
@@ -3117,7 +3117,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="99">
@@ -3334,7 +3334,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>53</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3">
@@ -3342,7 +3342,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>54</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4">
@@ -3350,7 +3350,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>55</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
@@ -3358,7 +3358,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>55</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6">
@@ -3366,7 +3366,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>56</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7">
@@ -3374,7 +3374,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>57</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8">
@@ -3382,7 +3382,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>57</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9">
@@ -3390,7 +3390,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>58</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10">
@@ -3398,7 +3398,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>59</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11">
@@ -3406,7 +3406,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>59</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12">
@@ -3414,7 +3414,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>60</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13">
@@ -3422,7 +3422,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14">
@@ -3430,7 +3430,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>61</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15">
@@ -3438,7 +3438,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>62</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16">
@@ -3446,7 +3446,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>63</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17">
@@ -3454,7 +3454,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>63</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18">
@@ -3462,7 +3462,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>64</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19">
@@ -3470,7 +3470,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>65</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20">
@@ -3478,7 +3478,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>65</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21">
@@ -3486,7 +3486,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>66</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22">
@@ -3494,7 +3494,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>67</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23">
@@ -3502,7 +3502,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24">
@@ -3510,7 +3510,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>68</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25">
@@ -3518,7 +3518,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>69</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26">
@@ -3526,7 +3526,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>69</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27">
@@ -3534,7 +3534,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>70</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28">
@@ -3542,7 +3542,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>71</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29">
@@ -3550,7 +3550,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>72</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30">
@@ -3558,7 +3558,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>72</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31">
@@ -3566,7 +3566,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>73</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32">
@@ -3574,7 +3574,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>74</v>
+        <v>91</v>
       </c>
     </row>
     <row r="33">
@@ -3582,7 +3582,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>74</v>
+        <v>91</v>
       </c>
     </row>
     <row r="34">
@@ -3590,7 +3590,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>75</v>
+        <v>92</v>
       </c>
     </row>
     <row r="35">
@@ -3598,7 +3598,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>76</v>
+        <v>93</v>
       </c>
     </row>
     <row r="36">
@@ -3606,7 +3606,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>76</v>
+        <v>94</v>
       </c>
     </row>
     <row r="37">
@@ -3614,7 +3614,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>77</v>
+        <v>95</v>
       </c>
     </row>
     <row r="38">
@@ -3622,7 +3622,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>78</v>
+        <v>96</v>
       </c>
     </row>
     <row r="39">
@@ -3630,7 +3630,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>79</v>
+        <v>97</v>
       </c>
     </row>
     <row r="40">
@@ -3638,7 +3638,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>79</v>
+        <v>97</v>
       </c>
     </row>
     <row r="41">
@@ -3646,7 +3646,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>80</v>
+        <v>98</v>
       </c>
     </row>
     <row r="42">
@@ -3654,7 +3654,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>81</v>
+        <v>99</v>
       </c>
     </row>
     <row r="43">
@@ -3662,7 +3662,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>81</v>
+        <v>100</v>
       </c>
     </row>
     <row r="44">
@@ -3670,7 +3670,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>82</v>
+        <v>101</v>
       </c>
     </row>
     <row r="45">
@@ -3678,7 +3678,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>83</v>
+        <v>102</v>
       </c>
     </row>
     <row r="46">
@@ -3686,7 +3686,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>83</v>
+        <v>102</v>
       </c>
     </row>
     <row r="47">
@@ -3694,7 +3694,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>84</v>
+        <v>103</v>
       </c>
     </row>
     <row r="48">
@@ -3702,7 +3702,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>85</v>
+        <v>104</v>
       </c>
     </row>
     <row r="49">
@@ -3710,7 +3710,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>86</v>
+        <v>105</v>
       </c>
     </row>
     <row r="50">
@@ -3718,7 +3718,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>86</v>
+        <v>106</v>
       </c>
     </row>
     <row r="51">
@@ -3726,7 +3726,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>87</v>
+        <v>107</v>
       </c>
     </row>
     <row r="52">
@@ -3734,7 +3734,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>88</v>
+        <v>107</v>
       </c>
     </row>
     <row r="53">
@@ -3742,7 +3742,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>88</v>
+        <v>108</v>
       </c>
     </row>
     <row r="54">
@@ -3750,7 +3750,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>89</v>
+        <v>109</v>
       </c>
     </row>
     <row r="55">
@@ -3758,7 +3758,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>90</v>
+        <v>110</v>
       </c>
     </row>
     <row r="56">
@@ -3766,7 +3766,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>91</v>
+        <v>111</v>
       </c>
     </row>
     <row r="57">
@@ -3774,7 +3774,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>91</v>
+        <v>112</v>
       </c>
     </row>
     <row r="58">
@@ -3782,7 +3782,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>92</v>
+        <v>112</v>
       </c>
     </row>
     <row r="59">
@@ -3790,7 +3790,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>93</v>
+        <v>113</v>
       </c>
     </row>
     <row r="60">
@@ -3798,7 +3798,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>94</v>
+        <v>114</v>
       </c>
     </row>
     <row r="61">
@@ -3806,7 +3806,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>94</v>
+        <v>115</v>
       </c>
     </row>
     <row r="62">
@@ -3814,7 +3814,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>95</v>
+        <v>116</v>
       </c>
     </row>
     <row r="63">
@@ -3822,7 +3822,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>96</v>
+        <v>117</v>
       </c>
     </row>
     <row r="64">
@@ -3830,7 +3830,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>97</v>
+        <v>117</v>
       </c>
     </row>
     <row r="65">
@@ -3838,7 +3838,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>97</v>
+        <v>118</v>
       </c>
     </row>
     <row r="66">
@@ -3846,7 +3846,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>98</v>
+        <v>119</v>
       </c>
     </row>
     <row r="67">
@@ -3854,7 +3854,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>99</v>
+        <v>120</v>
       </c>
     </row>
     <row r="68">
@@ -3862,7 +3862,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>100</v>
+        <v>121</v>
       </c>
     </row>
     <row r="69">
@@ -3870,7 +3870,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>100</v>
+        <v>122</v>
       </c>
     </row>
     <row r="70">
@@ -3878,7 +3878,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>101</v>
+        <v>122</v>
       </c>
     </row>
     <row r="71">
@@ -3886,7 +3886,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>102</v>
+        <v>123</v>
       </c>
     </row>
     <row r="72">
@@ -3894,7 +3894,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>103</v>
+        <v>124</v>
       </c>
     </row>
     <row r="73">
@@ -3902,7 +3902,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>103</v>
+        <v>125</v>
       </c>
     </row>
     <row r="74">
@@ -3910,7 +3910,7 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>104</v>
+        <v>126</v>
       </c>
     </row>
     <row r="75">
@@ -3918,7 +3918,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>105</v>
+        <v>127</v>
       </c>
     </row>
     <row r="76">
@@ -3926,7 +3926,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>106</v>
+        <v>128</v>
       </c>
     </row>
     <row r="77">
@@ -3934,7 +3934,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>106</v>
+        <v>128</v>
       </c>
     </row>
     <row r="78">
@@ -3942,7 +3942,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>107</v>
+        <v>129</v>
       </c>
     </row>
     <row r="79">
@@ -3950,7 +3950,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>108</v>
+        <v>130</v>
       </c>
     </row>
     <row r="80">
@@ -3958,7 +3958,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>109</v>
+        <v>130</v>
       </c>
     </row>
     <row r="81">
@@ -3966,7 +3966,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>110</v>
+        <v>130</v>
       </c>
     </row>
     <row r="82">
@@ -3974,7 +3974,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>110</v>
+        <v>130</v>
       </c>
     </row>
     <row r="83">
@@ -3982,7 +3982,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>111</v>
+        <v>130</v>
       </c>
     </row>
     <row r="84">
@@ -3990,7 +3990,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>112</v>
+        <v>130</v>
       </c>
     </row>
     <row r="85">
@@ -3998,7 +3998,7 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="86">
@@ -4006,7 +4006,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="87">
@@ -4014,7 +4014,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>114</v>
+        <v>130</v>
       </c>
     </row>
     <row r="88">
@@ -4022,7 +4022,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>115</v>
+        <v>130</v>
       </c>
     </row>
     <row r="89">
@@ -4030,7 +4030,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>116</v>
+        <v>130</v>
       </c>
     </row>
     <row r="90">
@@ -4038,7 +4038,7 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>117</v>
+        <v>130</v>
       </c>
     </row>
     <row r="91">
@@ -4046,7 +4046,7 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>118</v>
+        <v>130</v>
       </c>
     </row>
     <row r="92">
@@ -4054,7 +4054,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>118</v>
+        <v>130</v>
       </c>
     </row>
     <row r="93">
@@ -4062,7 +4062,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>119</v>
+        <v>130</v>
       </c>
     </row>
     <row r="94">
@@ -4070,7 +4070,7 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="95">
@@ -4078,7 +4078,7 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>121</v>
+        <v>130</v>
       </c>
     </row>
     <row r="96">
@@ -4086,7 +4086,7 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>122</v>
+        <v>130</v>
       </c>
     </row>
     <row r="97">
@@ -4094,7 +4094,7 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>123</v>
+        <v>130</v>
       </c>
     </row>
     <row r="98">
@@ -4102,7 +4102,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>123</v>
+        <v>130</v>
       </c>
     </row>
     <row r="99">
@@ -4110,7 +4110,7 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="100">
@@ -4118,7 +4118,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="101">
@@ -4126,7 +4126,7 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="102">
@@ -4134,7 +4134,7 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="103">
@@ -4142,7 +4142,7 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="104">
@@ -4150,7 +4150,7 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="105">
@@ -4327,7 +4327,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
@@ -4351,7 +4351,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7">
@@ -4367,7 +4367,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9">
@@ -4391,7 +4391,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12">
@@ -4415,7 +4415,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15">
@@ -4439,7 +4439,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18">
@@ -4463,7 +4463,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21">
@@ -5055,7 +5055,7 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="95">
@@ -5119,7 +5119,7 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="103">
@@ -5127,7 +5127,7 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="104">
@@ -5135,7 +5135,7 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="105">
@@ -5312,7 +5312,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4">
@@ -5336,7 +5336,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7">
@@ -5352,7 +5352,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9">
@@ -5376,7 +5376,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12">
@@ -5392,7 +5392,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14">
@@ -5416,7 +5416,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17">
@@ -5456,7 +5456,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22">
@@ -5480,7 +5480,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25">
@@ -5520,7 +5520,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30">
@@ -5608,7 +5608,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="41">
@@ -5776,7 +5776,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="62">
@@ -5800,7 +5800,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="65">
@@ -5856,7 +5856,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="72">
@@ -5888,7 +5888,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="76">
@@ -5920,7 +5920,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="80">
@@ -5952,7 +5952,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="84">
@@ -5992,7 +5992,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="89">
@@ -6040,7 +6040,7 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="95">
@@ -6048,7 +6048,7 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="96">
@@ -6184,7 +6184,7 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="113">

--- a/OUTPUT-FILES/NORMS/TODE_8.27.21_fornorms/rlne_sum-raw-ss-lookup-tabbed-grade.xlsx
+++ b/OUTPUT-FILES/NORMS/TODE_8.27.21_fornorms/rlne_sum-raw-ss-lookup-tabbed-grade.xlsx
@@ -356,7 +356,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B121"/>
+  <dimension ref="A1:B142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -376,775 +376,775 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>-20</v>
       </c>
       <c r="B2">
-        <v>66</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>-19</v>
       </c>
       <c r="B3">
-        <v>66</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>-18</v>
       </c>
       <c r="B4">
-        <v>67</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>-17</v>
       </c>
       <c r="B5">
-        <v>68</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>-16</v>
       </c>
       <c r="B6">
-        <v>69</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>-15</v>
       </c>
       <c r="B7">
-        <v>70</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>-14</v>
       </c>
       <c r="B8">
-        <v>71</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>-13</v>
       </c>
       <c r="B9">
-        <v>71</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>-12</v>
       </c>
       <c r="B10">
-        <v>72</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>-11</v>
       </c>
       <c r="B11">
-        <v>73</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>-10</v>
       </c>
       <c r="B12">
-        <v>74</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>-9</v>
       </c>
       <c r="B13">
-        <v>75</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>-8</v>
       </c>
       <c r="B14">
-        <v>76</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>-7</v>
       </c>
       <c r="B15">
-        <v>76</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>-6</v>
       </c>
       <c r="B16">
-        <v>77</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>-5</v>
       </c>
       <c r="B17">
-        <v>78</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>-4</v>
       </c>
       <c r="B18">
-        <v>79</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>-3</v>
       </c>
       <c r="B19">
-        <v>80</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>-2</v>
       </c>
       <c r="B20">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>-1</v>
       </c>
       <c r="B21">
-        <v>81</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="B22">
-        <v>82</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="B23">
-        <v>83</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="B24">
-        <v>84</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="B25">
-        <v>85</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="B26">
-        <v>86</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="B27">
-        <v>86</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="B28">
-        <v>87</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="B29">
-        <v>88</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="B30">
-        <v>89</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="B31">
-        <v>90</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="B32">
-        <v>91</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="B33">
-        <v>91</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="B34">
-        <v>92</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="B35">
-        <v>93</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="B36">
-        <v>94</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="B37">
-        <v>95</v>
+        <v>75</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="B38">
-        <v>96</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="B39">
-        <v>97</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="B40">
-        <v>97</v>
+        <v>78</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="B41">
-        <v>98</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="B42">
-        <v>99</v>
+        <v>80</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="B43">
-        <v>100</v>
+        <v>81</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B44">
-        <v>101</v>
+        <v>82</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="B45">
-        <v>102</v>
+        <v>83</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="B46">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="B47">
-        <v>103</v>
+        <v>85</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="B48">
-        <v>104</v>
+        <v>85</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="B49">
-        <v>105</v>
+        <v>86</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="B50">
-        <v>106</v>
+        <v>87</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="B51">
-        <v>107</v>
+        <v>88</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="B52">
-        <v>107</v>
+        <v>89</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="B53">
-        <v>108</v>
+        <v>90</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="B54">
-        <v>109</v>
+        <v>91</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="B55">
-        <v>110</v>
+        <v>92</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="B56">
-        <v>111</v>
+        <v>93</v>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="B57">
-        <v>112</v>
+        <v>94</v>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="B58">
-        <v>112</v>
+        <v>95</v>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="B59">
-        <v>113</v>
+        <v>95</v>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="B60">
-        <v>114</v>
+        <v>96</v>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="B61">
-        <v>115</v>
+        <v>97</v>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="B62">
-        <v>116</v>
+        <v>98</v>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="B63">
-        <v>117</v>
+        <v>99</v>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="B64">
-        <v>117</v>
+        <v>100</v>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="B65">
-        <v>118</v>
+        <v>101</v>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="B66">
-        <v>119</v>
+        <v>102</v>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="B67">
-        <v>120</v>
+        <v>103</v>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="B68">
-        <v>121</v>
+        <v>104</v>
       </c>
     </row>
     <row r="69">
       <c r="A69">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="B69">
-        <v>122</v>
+        <v>104</v>
       </c>
     </row>
     <row r="70">
       <c r="A70">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="B70">
-        <v>122</v>
+        <v>105</v>
       </c>
     </row>
     <row r="71">
       <c r="A71">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="B71">
-        <v>123</v>
+        <v>106</v>
       </c>
     </row>
     <row r="72">
       <c r="A72">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="B72">
-        <v>124</v>
+        <v>107</v>
       </c>
     </row>
     <row r="73">
       <c r="A73">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="B73">
-        <v>125</v>
+        <v>108</v>
       </c>
     </row>
     <row r="74">
       <c r="A74">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="B74">
-        <v>126</v>
+        <v>109</v>
       </c>
     </row>
     <row r="75">
       <c r="A75">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="B75">
-        <v>127</v>
+        <v>110</v>
       </c>
     </row>
     <row r="76">
       <c r="A76">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="B76">
-        <v>128</v>
+        <v>111</v>
       </c>
     </row>
     <row r="77">
       <c r="A77">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="B77">
-        <v>128</v>
+        <v>112</v>
       </c>
     </row>
     <row r="78">
       <c r="A78">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="B78">
-        <v>129</v>
+        <v>113</v>
       </c>
     </row>
     <row r="79">
       <c r="A79">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="B79">
-        <v>130</v>
+        <v>113</v>
       </c>
     </row>
     <row r="80">
       <c r="A80">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="B80">
-        <v>130</v>
+        <v>114</v>
       </c>
     </row>
     <row r="81">
       <c r="A81">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="B81">
-        <v>130</v>
+        <v>115</v>
       </c>
     </row>
     <row r="82">
       <c r="A82">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="B82">
-        <v>130</v>
+        <v>116</v>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="B83">
-        <v>130</v>
+        <v>117</v>
       </c>
     </row>
     <row r="84">
       <c r="A84">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="B84">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
     <row r="85">
       <c r="A85">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="B85">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="86">
       <c r="A86">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="B86">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="87">
       <c r="A87">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="B87">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="88">
       <c r="A88">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="B88">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="89">
       <c r="A89">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="B89">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="90">
       <c r="A90">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="B90">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="91">
       <c r="A91">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="B91">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="92">
       <c r="A92">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="B92">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="93">
       <c r="A93">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="B93">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="94">
       <c r="A94">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="B94">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="95">
       <c r="A95">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="B95">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="96">
       <c r="A96">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="B96">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="97">
       <c r="A97">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="B97">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="98">
       <c r="A98">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="B98">
         <v>130</v>
@@ -1152,7 +1152,7 @@
     </row>
     <row r="99">
       <c r="A99">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="B99">
         <v>130</v>
@@ -1160,7 +1160,7 @@
     </row>
     <row r="100">
       <c r="A100">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="B100">
         <v>130</v>
@@ -1168,7 +1168,7 @@
     </row>
     <row r="101">
       <c r="A101">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="B101">
         <v>130</v>
@@ -1176,7 +1176,7 @@
     </row>
     <row r="102">
       <c r="A102">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="B102">
         <v>130</v>
@@ -1184,7 +1184,7 @@
     </row>
     <row r="103">
       <c r="A103">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="B103">
         <v>130</v>
@@ -1192,7 +1192,7 @@
     </row>
     <row r="104">
       <c r="A104">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="B104">
         <v>130</v>
@@ -1200,7 +1200,7 @@
     </row>
     <row r="105">
       <c r="A105">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="B105">
         <v>130</v>
@@ -1208,7 +1208,7 @@
     </row>
     <row r="106">
       <c r="A106">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="B106">
         <v>130</v>
@@ -1216,7 +1216,7 @@
     </row>
     <row r="107">
       <c r="A107">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="B107">
         <v>130</v>
@@ -1224,7 +1224,7 @@
     </row>
     <row r="108">
       <c r="A108">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="B108">
         <v>130</v>
@@ -1232,7 +1232,7 @@
     </row>
     <row r="109">
       <c r="A109">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="B109">
         <v>130</v>
@@ -1240,7 +1240,7 @@
     </row>
     <row r="110">
       <c r="A110">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="B110">
         <v>130</v>
@@ -1248,7 +1248,7 @@
     </row>
     <row r="111">
       <c r="A111">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="B111">
         <v>130</v>
@@ -1256,7 +1256,7 @@
     </row>
     <row r="112">
       <c r="A112">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="B112">
         <v>130</v>
@@ -1264,7 +1264,7 @@
     </row>
     <row r="113">
       <c r="A113">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="B113">
         <v>130</v>
@@ -1272,7 +1272,7 @@
     </row>
     <row r="114">
       <c r="A114">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="B114">
         <v>130</v>
@@ -1280,7 +1280,7 @@
     </row>
     <row r="115">
       <c r="A115">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="B115">
         <v>130</v>
@@ -1288,7 +1288,7 @@
     </row>
     <row r="116">
       <c r="A116">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="B116">
         <v>130</v>
@@ -1296,7 +1296,7 @@
     </row>
     <row r="117">
       <c r="A117">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="B117">
         <v>130</v>
@@ -1304,7 +1304,7 @@
     </row>
     <row r="118">
       <c r="A118">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="B118">
         <v>130</v>
@@ -1312,7 +1312,7 @@
     </row>
     <row r="119">
       <c r="A119">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="B119">
         <v>130</v>
@@ -1320,7 +1320,7 @@
     </row>
     <row r="120">
       <c r="A120">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="B120">
         <v>130</v>
@@ -1328,9 +1328,177 @@
     </row>
     <row r="121">
       <c r="A121">
+        <v>99</v>
+      </c>
+      <c r="B121">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122">
+        <v>100</v>
+      </c>
+      <c r="B122">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123">
+        <v>101</v>
+      </c>
+      <c r="B123">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124">
+        <v>102</v>
+      </c>
+      <c r="B124">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125">
+        <v>103</v>
+      </c>
+      <c r="B125">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126">
+        <v>104</v>
+      </c>
+      <c r="B126">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127">
+        <v>105</v>
+      </c>
+      <c r="B127">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128">
+        <v>106</v>
+      </c>
+      <c r="B128">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129">
+        <v>107</v>
+      </c>
+      <c r="B129">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130">
+        <v>108</v>
+      </c>
+      <c r="B130">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131">
+        <v>109</v>
+      </c>
+      <c r="B131">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132">
+        <v>110</v>
+      </c>
+      <c r="B132">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133">
+        <v>111</v>
+      </c>
+      <c r="B133">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134">
+        <v>112</v>
+      </c>
+      <c r="B134">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135">
+        <v>113</v>
+      </c>
+      <c r="B135">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136">
+        <v>114</v>
+      </c>
+      <c r="B136">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137">
+        <v>115</v>
+      </c>
+      <c r="B137">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138">
+        <v>116</v>
+      </c>
+      <c r="B138">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139">
+        <v>117</v>
+      </c>
+      <c r="B139">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140">
+        <v>118</v>
+      </c>
+      <c r="B140">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141">
+        <v>119</v>
+      </c>
+      <c r="B141">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142">
         <v>120</v>
       </c>
-      <c r="B121">
+      <c r="B142">
         <v>130</v>
       </c>
     </row>
@@ -1341,7 +1509,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B121"/>
+  <dimension ref="A1:B142"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1361,887 +1529,887 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>-20</v>
       </c>
       <c r="B2">
-        <v>61</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>-19</v>
       </c>
       <c r="B3">
-        <v>61</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>-18</v>
       </c>
       <c r="B4">
-        <v>62</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>-17</v>
       </c>
       <c r="B5">
-        <v>63</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>-16</v>
       </c>
       <c r="B6">
-        <v>64</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>-15</v>
       </c>
       <c r="B7">
-        <v>65</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>-14</v>
       </c>
       <c r="B8">
-        <v>65</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>-13</v>
       </c>
       <c r="B9">
-        <v>66</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>-12</v>
       </c>
       <c r="B10">
-        <v>67</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>-11</v>
       </c>
       <c r="B11">
-        <v>68</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>-10</v>
       </c>
       <c r="B12">
-        <v>68</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>-9</v>
       </c>
       <c r="B13">
-        <v>69</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>-8</v>
       </c>
       <c r="B14">
-        <v>70</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>-7</v>
       </c>
       <c r="B15">
-        <v>71</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>-6</v>
       </c>
       <c r="B16">
-        <v>72</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>-5</v>
       </c>
       <c r="B17">
-        <v>72</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>-4</v>
       </c>
       <c r="B18">
-        <v>73</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>-3</v>
       </c>
       <c r="B19">
-        <v>74</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>-2</v>
       </c>
       <c r="B20">
-        <v>75</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>-1</v>
       </c>
       <c r="B21">
-        <v>75</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="B22">
-        <v>76</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="B23">
-        <v>77</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="B24">
-        <v>78</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="B25">
-        <v>79</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="B26">
-        <v>79</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="B27">
-        <v>80</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="B28">
-        <v>81</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="B29">
-        <v>82</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="B30">
-        <v>82</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="B31">
-        <v>83</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="B32">
-        <v>84</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="B33">
-        <v>85</v>
+        <v>67</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="B34">
-        <v>86</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="B35">
-        <v>86</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="B36">
-        <v>87</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="B37">
-        <v>88</v>
+        <v>71</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="B38">
-        <v>89</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="B39">
-        <v>89</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="B40">
-        <v>90</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="B41">
-        <v>91</v>
+        <v>74</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="B42">
-        <v>92</v>
+        <v>75</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="B43">
-        <v>93</v>
+        <v>76</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B44">
-        <v>93</v>
+        <v>76</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="B45">
-        <v>94</v>
+        <v>77</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="B46">
-        <v>95</v>
+        <v>78</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="B47">
-        <v>96</v>
+        <v>79</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="B48">
-        <v>97</v>
+        <v>80</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="B49">
-        <v>97</v>
+        <v>80</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="B50">
-        <v>98</v>
+        <v>81</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="B51">
-        <v>99</v>
+        <v>82</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="B52">
-        <v>100</v>
+        <v>83</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="B53">
-        <v>100</v>
+        <v>84</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="B54">
-        <v>101</v>
+        <v>84</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="B55">
-        <v>102</v>
+        <v>85</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="B56">
-        <v>103</v>
+        <v>86</v>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="B57">
-        <v>104</v>
+        <v>87</v>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="B58">
-        <v>104</v>
+        <v>88</v>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="B59">
-        <v>105</v>
+        <v>88</v>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="B60">
-        <v>106</v>
+        <v>89</v>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="B61">
-        <v>107</v>
+        <v>90</v>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="B62">
-        <v>108</v>
+        <v>91</v>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="B63">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="B64">
-        <v>109</v>
+        <v>92</v>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="B65">
-        <v>110</v>
+        <v>93</v>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="B66">
-        <v>111</v>
+        <v>94</v>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="B67">
-        <v>112</v>
+        <v>95</v>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="B68">
-        <v>112</v>
+        <v>96</v>
       </c>
     </row>
     <row r="69">
       <c r="A69">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="B69">
-        <v>113</v>
+        <v>96</v>
       </c>
     </row>
     <row r="70">
       <c r="A70">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="B70">
-        <v>114</v>
+        <v>97</v>
       </c>
     </row>
     <row r="71">
       <c r="A71">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="B71">
-        <v>115</v>
+        <v>98</v>
       </c>
     </row>
     <row r="72">
       <c r="A72">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="B72">
-        <v>116</v>
+        <v>99</v>
       </c>
     </row>
     <row r="73">
       <c r="A73">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="B73">
-        <v>116</v>
+        <v>99</v>
       </c>
     </row>
     <row r="74">
       <c r="A74">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="B74">
-        <v>117</v>
+        <v>100</v>
       </c>
     </row>
     <row r="75">
       <c r="A75">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="B75">
-        <v>118</v>
+        <v>101</v>
       </c>
     </row>
     <row r="76">
       <c r="A76">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="B76">
-        <v>119</v>
+        <v>102</v>
       </c>
     </row>
     <row r="77">
       <c r="A77">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="B77">
-        <v>120</v>
+        <v>103</v>
       </c>
     </row>
     <row r="78">
       <c r="A78">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="B78">
-        <v>120</v>
+        <v>103</v>
       </c>
     </row>
     <row r="79">
       <c r="A79">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="B79">
-        <v>121</v>
+        <v>104</v>
       </c>
     </row>
     <row r="80">
       <c r="A80">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="B80">
-        <v>122</v>
+        <v>105</v>
       </c>
     </row>
     <row r="81">
       <c r="A81">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="B81">
-        <v>123</v>
+        <v>106</v>
       </c>
     </row>
     <row r="82">
       <c r="A82">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="B82">
-        <v>124</v>
+        <v>107</v>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="B83">
-        <v>124</v>
+        <v>107</v>
       </c>
     </row>
     <row r="84">
       <c r="A84">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="B84">
-        <v>125</v>
+        <v>108</v>
       </c>
     </row>
     <row r="85">
       <c r="A85">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="B85">
-        <v>126</v>
+        <v>109</v>
       </c>
     </row>
     <row r="86">
       <c r="A86">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="B86">
-        <v>127</v>
+        <v>110</v>
       </c>
     </row>
     <row r="87">
       <c r="A87">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="B87">
-        <v>128</v>
+        <v>110</v>
       </c>
     </row>
     <row r="88">
       <c r="A88">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="B88">
-        <v>128</v>
+        <v>111</v>
       </c>
     </row>
     <row r="89">
       <c r="A89">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="B89">
-        <v>129</v>
+        <v>112</v>
       </c>
     </row>
     <row r="90">
       <c r="A90">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="B90">
-        <v>130</v>
+        <v>113</v>
       </c>
     </row>
     <row r="91">
       <c r="A91">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="B91">
-        <v>130</v>
+        <v>114</v>
       </c>
     </row>
     <row r="92">
       <c r="A92">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="B92">
-        <v>130</v>
+        <v>114</v>
       </c>
     </row>
     <row r="93">
       <c r="A93">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="B93">
-        <v>130</v>
+        <v>115</v>
       </c>
     </row>
     <row r="94">
       <c r="A94">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="B94">
-        <v>130</v>
+        <v>116</v>
       </c>
     </row>
     <row r="95">
       <c r="A95">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="B95">
-        <v>130</v>
+        <v>117</v>
       </c>
     </row>
     <row r="96">
       <c r="A96">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="B96">
-        <v>130</v>
+        <v>117</v>
       </c>
     </row>
     <row r="97">
       <c r="A97">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="B97">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
     <row r="98">
       <c r="A98">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="B98">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="99">
       <c r="A99">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="B99">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="100">
       <c r="A100">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="B100">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="101">
       <c r="A101">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="B101">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="102">
       <c r="A102">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="B102">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="103">
       <c r="A103">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="B103">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="104">
       <c r="A104">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="B104">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="105">
       <c r="A105">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="B105">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="106">
       <c r="A106">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="B106">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="107">
       <c r="A107">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="B107">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="108">
       <c r="A108">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="B108">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="109">
       <c r="A109">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="B109">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="110">
       <c r="A110">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="B110">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="111">
       <c r="A111">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="B111">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="112">
       <c r="A112">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="B112">
         <v>130</v>
@@ -2249,7 +2417,7 @@
     </row>
     <row r="113">
       <c r="A113">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="B113">
         <v>130</v>
@@ -2257,7 +2425,7 @@
     </row>
     <row r="114">
       <c r="A114">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="B114">
         <v>130</v>
@@ -2265,7 +2433,7 @@
     </row>
     <row r="115">
       <c r="A115">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="B115">
         <v>130</v>
@@ -2273,7 +2441,7 @@
     </row>
     <row r="116">
       <c r="A116">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="B116">
         <v>130</v>
@@ -2281,7 +2449,7 @@
     </row>
     <row r="117">
       <c r="A117">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="B117">
         <v>130</v>
@@ -2289,7 +2457,7 @@
     </row>
     <row r="118">
       <c r="A118">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="B118">
         <v>130</v>
@@ -2297,7 +2465,7 @@
     </row>
     <row r="119">
       <c r="A119">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="B119">
         <v>130</v>
@@ -2305,7 +2473,7 @@
     </row>
     <row r="120">
       <c r="A120">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="B120">
         <v>130</v>
@@ -2313,9 +2481,177 @@
     </row>
     <row r="121">
       <c r="A121">
+        <v>99</v>
+      </c>
+      <c r="B121">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122">
+        <v>100</v>
+      </c>
+      <c r="B122">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123">
+        <v>101</v>
+      </c>
+      <c r="B123">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124">
+        <v>102</v>
+      </c>
+      <c r="B124">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125">
+        <v>103</v>
+      </c>
+      <c r="B125">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126">
+        <v>104</v>
+      </c>
+      <c r="B126">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127">
+        <v>105</v>
+      </c>
+      <c r="B127">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128">
+        <v>106</v>
+      </c>
+      <c r="B128">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129">
+        <v>107</v>
+      </c>
+      <c r="B129">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130">
+        <v>108</v>
+      </c>
+      <c r="B130">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131">
+        <v>109</v>
+      </c>
+      <c r="B131">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132">
+        <v>110</v>
+      </c>
+      <c r="B132">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133">
+        <v>111</v>
+      </c>
+      <c r="B133">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134">
+        <v>112</v>
+      </c>
+      <c r="B134">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135">
+        <v>113</v>
+      </c>
+      <c r="B135">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136">
+        <v>114</v>
+      </c>
+      <c r="B136">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137">
+        <v>115</v>
+      </c>
+      <c r="B137">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138">
+        <v>116</v>
+      </c>
+      <c r="B138">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139">
+        <v>117</v>
+      </c>
+      <c r="B139">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140">
+        <v>118</v>
+      </c>
+      <c r="B140">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141">
+        <v>119</v>
+      </c>
+      <c r="B141">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142">
         <v>120</v>
       </c>
-      <c r="B121">
+      <c r="B142">
         <v>130</v>
       </c>
     </row>
@@ -2326,7 +2662,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B121"/>
+  <dimension ref="A1:B142"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2346,961 +2682,1129 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>-20</v>
       </c>
       <c r="B2">
-        <v>56</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>-19</v>
       </c>
       <c r="B3">
-        <v>57</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>-18</v>
       </c>
       <c r="B4">
-        <v>58</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>-17</v>
       </c>
       <c r="B5">
-        <v>59</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>-16</v>
       </c>
       <c r="B6">
-        <v>59</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>-15</v>
       </c>
       <c r="B7">
-        <v>60</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>-14</v>
       </c>
       <c r="B8">
-        <v>61</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>-13</v>
       </c>
       <c r="B9">
-        <v>62</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>-12</v>
       </c>
       <c r="B10">
-        <v>62</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>-11</v>
       </c>
       <c r="B11">
-        <v>63</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>-10</v>
       </c>
       <c r="B12">
-        <v>64</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>-9</v>
       </c>
       <c r="B13">
-        <v>64</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>-8</v>
       </c>
       <c r="B14">
-        <v>65</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>-7</v>
       </c>
       <c r="B15">
-        <v>66</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>-6</v>
       </c>
       <c r="B16">
-        <v>67</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>-5</v>
       </c>
       <c r="B17">
-        <v>67</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>-4</v>
       </c>
       <c r="B18">
-        <v>68</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>-3</v>
       </c>
       <c r="B19">
-        <v>69</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>-2</v>
       </c>
       <c r="B20">
-        <v>70</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>-1</v>
       </c>
       <c r="B21">
-        <v>70</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="B22">
-        <v>71</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="B23">
-        <v>72</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="B24">
-        <v>72</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="B25">
-        <v>73</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="B26">
-        <v>74</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="B27">
-        <v>75</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="B28">
-        <v>75</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="B29">
-        <v>76</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="B30">
-        <v>77</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="B31">
-        <v>78</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="B32">
-        <v>78</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="B33">
-        <v>79</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="B34">
-        <v>80</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="B35">
-        <v>81</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="B36">
-        <v>81</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="B37">
-        <v>82</v>
+        <v>67</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="B38">
-        <v>83</v>
+        <v>68</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="B39">
-        <v>84</v>
+        <v>68</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="B40">
-        <v>84</v>
+        <v>69</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="B41">
-        <v>85</v>
+        <v>70</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="B42">
-        <v>86</v>
+        <v>71</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="B43">
-        <v>87</v>
+        <v>71</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B44">
-        <v>87</v>
+        <v>72</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="B45">
-        <v>88</v>
+        <v>73</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="B46">
-        <v>89</v>
+        <v>74</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="B47">
-        <v>90</v>
+        <v>74</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="B48">
-        <v>90</v>
+        <v>75</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="B49">
-        <v>91</v>
+        <v>76</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="B50">
-        <v>92</v>
+        <v>77</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="B51">
-        <v>93</v>
+        <v>77</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="B52">
-        <v>93</v>
+        <v>78</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="B53">
-        <v>94</v>
+        <v>79</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="B54">
-        <v>95</v>
+        <v>80</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="B55">
-        <v>96</v>
+        <v>80</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="B56">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="B57">
-        <v>97</v>
+        <v>82</v>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="B58">
-        <v>98</v>
+        <v>83</v>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="B59">
-        <v>99</v>
+        <v>83</v>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="B60">
-        <v>99</v>
+        <v>84</v>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="B61">
-        <v>100</v>
+        <v>85</v>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="B62">
-        <v>101</v>
+        <v>86</v>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="B63">
-        <v>102</v>
+        <v>86</v>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="B64">
-        <v>102</v>
+        <v>87</v>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="B65">
-        <v>103</v>
+        <v>88</v>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="B66">
-        <v>104</v>
+        <v>88</v>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="B67">
-        <v>105</v>
+        <v>89</v>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="B68">
-        <v>105</v>
+        <v>90</v>
       </c>
     </row>
     <row r="69">
       <c r="A69">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="B69">
-        <v>106</v>
+        <v>91</v>
       </c>
     </row>
     <row r="70">
       <c r="A70">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="B70">
-        <v>107</v>
+        <v>91</v>
       </c>
     </row>
     <row r="71">
       <c r="A71">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="B71">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="72">
       <c r="A72">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="B72">
-        <v>108</v>
+        <v>93</v>
       </c>
     </row>
     <row r="73">
       <c r="A73">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="B73">
-        <v>109</v>
+        <v>94</v>
       </c>
     </row>
     <row r="74">
       <c r="A74">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="B74">
-        <v>110</v>
+        <v>94</v>
       </c>
     </row>
     <row r="75">
       <c r="A75">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="B75">
-        <v>111</v>
+        <v>95</v>
       </c>
     </row>
     <row r="76">
       <c r="A76">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="B76">
-        <v>112</v>
+        <v>96</v>
       </c>
     </row>
     <row r="77">
       <c r="A77">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="B77">
-        <v>112</v>
+        <v>97</v>
       </c>
     </row>
     <row r="78">
       <c r="A78">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="B78">
-        <v>113</v>
+        <v>97</v>
       </c>
     </row>
     <row r="79">
       <c r="A79">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="B79">
-        <v>114</v>
+        <v>98</v>
       </c>
     </row>
     <row r="80">
       <c r="A80">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="B80">
-        <v>115</v>
+        <v>99</v>
       </c>
     </row>
     <row r="81">
       <c r="A81">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="B81">
-        <v>115</v>
+        <v>99</v>
       </c>
     </row>
     <row r="82">
       <c r="A82">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="B82">
-        <v>116</v>
+        <v>100</v>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="B83">
-        <v>117</v>
+        <v>101</v>
       </c>
     </row>
     <row r="84">
       <c r="A84">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="B84">
-        <v>118</v>
+        <v>102</v>
       </c>
     </row>
     <row r="85">
       <c r="A85">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="B85">
-        <v>119</v>
+        <v>102</v>
       </c>
     </row>
     <row r="86">
       <c r="A86">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="B86">
-        <v>119</v>
+        <v>103</v>
       </c>
     </row>
     <row r="87">
       <c r="A87">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="B87">
-        <v>120</v>
+        <v>104</v>
       </c>
     </row>
     <row r="88">
       <c r="A88">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="B88">
-        <v>121</v>
+        <v>105</v>
       </c>
     </row>
     <row r="89">
       <c r="A89">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="B89">
-        <v>122</v>
+        <v>105</v>
       </c>
     </row>
     <row r="90">
       <c r="A90">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="B90">
-        <v>123</v>
+        <v>106</v>
       </c>
     </row>
     <row r="91">
       <c r="A91">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="B91">
-        <v>123</v>
+        <v>107</v>
       </c>
     </row>
     <row r="92">
       <c r="A92">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="B92">
-        <v>124</v>
+        <v>108</v>
       </c>
     </row>
     <row r="93">
       <c r="A93">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="B93">
-        <v>125</v>
+        <v>108</v>
       </c>
     </row>
     <row r="94">
       <c r="A94">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="B94">
-        <v>126</v>
+        <v>109</v>
       </c>
     </row>
     <row r="95">
       <c r="A95">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="B95">
-        <v>127</v>
+        <v>110</v>
       </c>
     </row>
     <row r="96">
       <c r="A96">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="B96">
-        <v>127</v>
+        <v>110</v>
       </c>
     </row>
     <row r="97">
       <c r="A97">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="B97">
-        <v>128</v>
+        <v>111</v>
       </c>
     </row>
     <row r="98">
       <c r="A98">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="B98">
-        <v>129</v>
+        <v>112</v>
       </c>
     </row>
     <row r="99">
       <c r="A99">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="B99">
-        <v>130</v>
+        <v>113</v>
       </c>
     </row>
     <row r="100">
       <c r="A100">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="B100">
-        <v>130</v>
+        <v>113</v>
       </c>
     </row>
     <row r="101">
       <c r="A101">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="B101">
-        <v>130</v>
+        <v>114</v>
       </c>
     </row>
     <row r="102">
       <c r="A102">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="B102">
-        <v>130</v>
+        <v>115</v>
       </c>
     </row>
     <row r="103">
       <c r="A103">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="B103">
-        <v>130</v>
+        <v>116</v>
       </c>
     </row>
     <row r="104">
       <c r="A104">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="B104">
-        <v>130</v>
+        <v>116</v>
       </c>
     </row>
     <row r="105">
       <c r="A105">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="B105">
-        <v>130</v>
+        <v>117</v>
       </c>
     </row>
     <row r="106">
       <c r="A106">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="B106">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
     <row r="107">
       <c r="A107">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="B107">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="108">
       <c r="A108">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="B108">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="109">
       <c r="A109">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="B109">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="110">
       <c r="A110">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="B110">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="111">
       <c r="A111">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="B111">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="112">
       <c r="A112">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="B112">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="113">
       <c r="A113">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="B113">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="114">
       <c r="A114">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="B114">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="115">
       <c r="A115">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="B115">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="116">
       <c r="A116">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="B116">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="117">
       <c r="A117">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="B117">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="118">
       <c r="A118">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="B118">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="119">
       <c r="A119">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="B119">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="120">
       <c r="A120">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="B120">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="121">
       <c r="A121">
+        <v>99</v>
+      </c>
+      <c r="B121">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122">
+        <v>100</v>
+      </c>
+      <c r="B122">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123">
+        <v>101</v>
+      </c>
+      <c r="B123">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124">
+        <v>102</v>
+      </c>
+      <c r="B124">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125">
+        <v>103</v>
+      </c>
+      <c r="B125">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126">
+        <v>104</v>
+      </c>
+      <c r="B126">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127">
+        <v>105</v>
+      </c>
+      <c r="B127">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128">
+        <v>106</v>
+      </c>
+      <c r="B128">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129">
+        <v>107</v>
+      </c>
+      <c r="B129">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130">
+        <v>108</v>
+      </c>
+      <c r="B130">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131">
+        <v>109</v>
+      </c>
+      <c r="B131">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132">
+        <v>110</v>
+      </c>
+      <c r="B132">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133">
+        <v>111</v>
+      </c>
+      <c r="B133">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134">
+        <v>112</v>
+      </c>
+      <c r="B134">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135">
+        <v>113</v>
+      </c>
+      <c r="B135">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136">
+        <v>114</v>
+      </c>
+      <c r="B136">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137">
+        <v>115</v>
+      </c>
+      <c r="B137">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138">
+        <v>116</v>
+      </c>
+      <c r="B138">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139">
+        <v>117</v>
+      </c>
+      <c r="B139">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140">
+        <v>118</v>
+      </c>
+      <c r="B140">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141">
+        <v>119</v>
+      </c>
+      <c r="B141">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142">
         <v>120</v>
       </c>
-      <c r="B121">
+      <c r="B142">
         <v>130</v>
       </c>
     </row>
@@ -3311,7 +3815,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B121"/>
+  <dimension ref="A1:B142"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3331,775 +3835,775 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>-20</v>
       </c>
       <c r="B2">
-        <v>66</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>-19</v>
       </c>
       <c r="B3">
-        <v>66</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>-18</v>
       </c>
       <c r="B4">
-        <v>67</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>-17</v>
       </c>
       <c r="B5">
-        <v>68</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>-16</v>
       </c>
       <c r="B6">
-        <v>69</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>-15</v>
       </c>
       <c r="B7">
-        <v>70</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>-14</v>
       </c>
       <c r="B8">
-        <v>71</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>-13</v>
       </c>
       <c r="B9">
-        <v>71</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>-12</v>
       </c>
       <c r="B10">
-        <v>72</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>-11</v>
       </c>
       <c r="B11">
-        <v>73</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>-10</v>
       </c>
       <c r="B12">
-        <v>74</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>-9</v>
       </c>
       <c r="B13">
-        <v>75</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>-8</v>
       </c>
       <c r="B14">
-        <v>76</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>-7</v>
       </c>
       <c r="B15">
-        <v>76</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>-6</v>
       </c>
       <c r="B16">
-        <v>77</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>-5</v>
       </c>
       <c r="B17">
-        <v>78</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>-4</v>
       </c>
       <c r="B18">
-        <v>79</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>-3</v>
       </c>
       <c r="B19">
-        <v>80</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>-2</v>
       </c>
       <c r="B20">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>-1</v>
       </c>
       <c r="B21">
-        <v>81</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="B22">
-        <v>82</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="B23">
-        <v>83</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="B24">
-        <v>84</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="B25">
-        <v>85</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="B26">
-        <v>86</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="B27">
-        <v>86</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="B28">
-        <v>87</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="B29">
-        <v>88</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="B30">
-        <v>89</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="B31">
-        <v>90</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="B32">
-        <v>91</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="B33">
-        <v>91</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="B34">
-        <v>92</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="B35">
-        <v>93</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="B36">
-        <v>94</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="B37">
-        <v>95</v>
+        <v>75</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="B38">
-        <v>96</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="B39">
-        <v>97</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="B40">
-        <v>97</v>
+        <v>78</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="B41">
-        <v>98</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="B42">
-        <v>99</v>
+        <v>80</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="B43">
-        <v>100</v>
+        <v>81</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B44">
-        <v>101</v>
+        <v>82</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="B45">
-        <v>102</v>
+        <v>83</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="B46">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="B47">
-        <v>103</v>
+        <v>85</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="B48">
-        <v>104</v>
+        <v>85</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="B49">
-        <v>105</v>
+        <v>86</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="B50">
-        <v>106</v>
+        <v>87</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="B51">
-        <v>107</v>
+        <v>88</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="B52">
-        <v>107</v>
+        <v>89</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="B53">
-        <v>108</v>
+        <v>90</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="B54">
-        <v>109</v>
+        <v>91</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="B55">
-        <v>110</v>
+        <v>92</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="B56">
-        <v>111</v>
+        <v>93</v>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="B57">
-        <v>112</v>
+        <v>94</v>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="B58">
-        <v>112</v>
+        <v>95</v>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="B59">
-        <v>113</v>
+        <v>95</v>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="B60">
-        <v>114</v>
+        <v>96</v>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="B61">
-        <v>115</v>
+        <v>97</v>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="B62">
-        <v>116</v>
+        <v>98</v>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="B63">
-        <v>117</v>
+        <v>99</v>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="B64">
-        <v>117</v>
+        <v>100</v>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="B65">
-        <v>118</v>
+        <v>101</v>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="B66">
-        <v>119</v>
+        <v>102</v>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="B67">
-        <v>120</v>
+        <v>103</v>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="B68">
-        <v>121</v>
+        <v>104</v>
       </c>
     </row>
     <row r="69">
       <c r="A69">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="B69">
-        <v>122</v>
+        <v>104</v>
       </c>
     </row>
     <row r="70">
       <c r="A70">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="B70">
-        <v>122</v>
+        <v>105</v>
       </c>
     </row>
     <row r="71">
       <c r="A71">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="B71">
-        <v>123</v>
+        <v>106</v>
       </c>
     </row>
     <row r="72">
       <c r="A72">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="B72">
-        <v>124</v>
+        <v>107</v>
       </c>
     </row>
     <row r="73">
       <c r="A73">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="B73">
-        <v>125</v>
+        <v>108</v>
       </c>
     </row>
     <row r="74">
       <c r="A74">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="B74">
-        <v>126</v>
+        <v>109</v>
       </c>
     </row>
     <row r="75">
       <c r="A75">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="B75">
-        <v>127</v>
+        <v>110</v>
       </c>
     </row>
     <row r="76">
       <c r="A76">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="B76">
-        <v>128</v>
+        <v>111</v>
       </c>
     </row>
     <row r="77">
       <c r="A77">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="B77">
-        <v>128</v>
+        <v>112</v>
       </c>
     </row>
     <row r="78">
       <c r="A78">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="B78">
-        <v>129</v>
+        <v>113</v>
       </c>
     </row>
     <row r="79">
       <c r="A79">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="B79">
-        <v>130</v>
+        <v>113</v>
       </c>
     </row>
     <row r="80">
       <c r="A80">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="B80">
-        <v>130</v>
+        <v>114</v>
       </c>
     </row>
     <row r="81">
       <c r="A81">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="B81">
-        <v>130</v>
+        <v>115</v>
       </c>
     </row>
     <row r="82">
       <c r="A82">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="B82">
-        <v>130</v>
+        <v>116</v>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="B83">
-        <v>130</v>
+        <v>117</v>
       </c>
     </row>
     <row r="84">
       <c r="A84">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="B84">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
     <row r="85">
       <c r="A85">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="B85">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="86">
       <c r="A86">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="B86">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="87">
       <c r="A87">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="B87">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="88">
       <c r="A88">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="B88">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="89">
       <c r="A89">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="B89">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="90">
       <c r="A90">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="B90">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="91">
       <c r="A91">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="B91">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="92">
       <c r="A92">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="B92">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="93">
       <c r="A93">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="B93">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="94">
       <c r="A94">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="B94">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="95">
       <c r="A95">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="B95">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="96">
       <c r="A96">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="B96">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="97">
       <c r="A97">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="B97">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="98">
       <c r="A98">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="B98">
         <v>130</v>
@@ -4107,7 +4611,7 @@
     </row>
     <row r="99">
       <c r="A99">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="B99">
         <v>130</v>
@@ -4115,7 +4619,7 @@
     </row>
     <row r="100">
       <c r="A100">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="B100">
         <v>130</v>
@@ -4123,7 +4627,7 @@
     </row>
     <row r="101">
       <c r="A101">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="B101">
         <v>130</v>
@@ -4131,7 +4635,7 @@
     </row>
     <row r="102">
       <c r="A102">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="B102">
         <v>130</v>
@@ -4139,7 +4643,7 @@
     </row>
     <row r="103">
       <c r="A103">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="B103">
         <v>130</v>
@@ -4147,7 +4651,7 @@
     </row>
     <row r="104">
       <c r="A104">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="B104">
         <v>130</v>
@@ -4155,7 +4659,7 @@
     </row>
     <row r="105">
       <c r="A105">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="B105">
         <v>130</v>
@@ -4163,7 +4667,7 @@
     </row>
     <row r="106">
       <c r="A106">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="B106">
         <v>130</v>
@@ -4171,7 +4675,7 @@
     </row>
     <row r="107">
       <c r="A107">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="B107">
         <v>130</v>
@@ -4179,7 +4683,7 @@
     </row>
     <row r="108">
       <c r="A108">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="B108">
         <v>130</v>
@@ -4187,7 +4691,7 @@
     </row>
     <row r="109">
       <c r="A109">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="B109">
         <v>130</v>
@@ -4195,7 +4699,7 @@
     </row>
     <row r="110">
       <c r="A110">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="B110">
         <v>130</v>
@@ -4203,7 +4707,7 @@
     </row>
     <row r="111">
       <c r="A111">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="B111">
         <v>130</v>
@@ -4211,7 +4715,7 @@
     </row>
     <row r="112">
       <c r="A112">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="B112">
         <v>130</v>
@@ -4219,7 +4723,7 @@
     </row>
     <row r="113">
       <c r="A113">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="B113">
         <v>130</v>
@@ -4227,7 +4731,7 @@
     </row>
     <row r="114">
       <c r="A114">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="B114">
         <v>130</v>
@@ -4235,7 +4739,7 @@
     </row>
     <row r="115">
       <c r="A115">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="B115">
         <v>130</v>
@@ -4243,7 +4747,7 @@
     </row>
     <row r="116">
       <c r="A116">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="B116">
         <v>130</v>
@@ -4251,7 +4755,7 @@
     </row>
     <row r="117">
       <c r="A117">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="B117">
         <v>130</v>
@@ -4259,7 +4763,7 @@
     </row>
     <row r="118">
       <c r="A118">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="B118">
         <v>130</v>
@@ -4267,7 +4771,7 @@
     </row>
     <row r="119">
       <c r="A119">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="B119">
         <v>130</v>
@@ -4275,7 +4779,7 @@
     </row>
     <row r="120">
       <c r="A120">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="B120">
         <v>130</v>
@@ -4283,9 +4787,177 @@
     </row>
     <row r="121">
       <c r="A121">
+        <v>99</v>
+      </c>
+      <c r="B121">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122">
+        <v>100</v>
+      </c>
+      <c r="B122">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123">
+        <v>101</v>
+      </c>
+      <c r="B123">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124">
+        <v>102</v>
+      </c>
+      <c r="B124">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125">
+        <v>103</v>
+      </c>
+      <c r="B125">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126">
+        <v>104</v>
+      </c>
+      <c r="B126">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127">
+        <v>105</v>
+      </c>
+      <c r="B127">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128">
+        <v>106</v>
+      </c>
+      <c r="B128">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129">
+        <v>107</v>
+      </c>
+      <c r="B129">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130">
+        <v>108</v>
+      </c>
+      <c r="B130">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131">
+        <v>109</v>
+      </c>
+      <c r="B131">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132">
+        <v>110</v>
+      </c>
+      <c r="B132">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133">
+        <v>111</v>
+      </c>
+      <c r="B133">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134">
+        <v>112</v>
+      </c>
+      <c r="B134">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135">
+        <v>113</v>
+      </c>
+      <c r="B135">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136">
+        <v>114</v>
+      </c>
+      <c r="B136">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137">
+        <v>115</v>
+      </c>
+      <c r="B137">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138">
+        <v>116</v>
+      </c>
+      <c r="B138">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139">
+        <v>117</v>
+      </c>
+      <c r="B139">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140">
+        <v>118</v>
+      </c>
+      <c r="B140">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141">
+        <v>119</v>
+      </c>
+      <c r="B141">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142">
         <v>120</v>
       </c>
-      <c r="B121">
+      <c r="B142">
         <v>130</v>
       </c>
     </row>
@@ -4296,7 +4968,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B121"/>
+  <dimension ref="A1:B142"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4316,961 +4988,1129 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>-20</v>
       </c>
       <c r="B2">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>-19</v>
       </c>
       <c r="B3">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>-18</v>
       </c>
       <c r="B4">
-        <v>51</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>-17</v>
       </c>
       <c r="B5">
-        <v>52</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>-16</v>
       </c>
       <c r="B6">
-        <v>52</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>-15</v>
       </c>
       <c r="B7">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>-14</v>
       </c>
       <c r="B8">
-        <v>53</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>-13</v>
       </c>
       <c r="B9">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>-12</v>
       </c>
       <c r="B10">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>-11</v>
       </c>
       <c r="B11">
-        <v>55</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>-10</v>
       </c>
       <c r="B12">
-        <v>56</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>-9</v>
       </c>
       <c r="B13">
-        <v>57</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>-8</v>
       </c>
       <c r="B14">
-        <v>57</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>-7</v>
       </c>
       <c r="B15">
-        <v>58</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>-6</v>
       </c>
       <c r="B16">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>-5</v>
       </c>
       <c r="B17">
-        <v>59</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>-4</v>
       </c>
       <c r="B18">
-        <v>60</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>-3</v>
       </c>
       <c r="B19">
-        <v>61</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>-2</v>
       </c>
       <c r="B20">
-        <v>61</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>-1</v>
       </c>
       <c r="B21">
-        <v>62</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="B22">
-        <v>63</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="B23">
-        <v>63</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="B24">
-        <v>64</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="B25">
-        <v>65</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="B26">
-        <v>65</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="B27">
-        <v>66</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="B28">
-        <v>67</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="B29">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="B30">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="B31">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="B32">
-        <v>69</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="B33">
-        <v>70</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="B34">
-        <v>71</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="B35">
-        <v>71</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="B36">
-        <v>72</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="B37">
-        <v>73</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="B38">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="B39">
-        <v>74</v>
+        <v>61</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="B40">
-        <v>75</v>
+        <v>62</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="B41">
-        <v>75</v>
+        <v>63</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="B42">
-        <v>76</v>
+        <v>63</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="B43">
-        <v>77</v>
+        <v>64</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B44">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="B45">
-        <v>78</v>
+        <v>65</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="B46">
-        <v>79</v>
+        <v>66</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="B47">
-        <v>79</v>
+        <v>67</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="B48">
-        <v>80</v>
+        <v>67</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="B49">
-        <v>81</v>
+        <v>68</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="B50">
-        <v>81</v>
+        <v>69</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="B51">
-        <v>82</v>
+        <v>69</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="B52">
-        <v>83</v>
+        <v>70</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="B53">
-        <v>83</v>
+        <v>71</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="B54">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="B55">
-        <v>85</v>
+        <v>72</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="B56">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="B57">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="B58">
-        <v>87</v>
+        <v>74</v>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="B59">
-        <v>88</v>
+        <v>75</v>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="B60">
-        <v>88</v>
+        <v>75</v>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="B61">
-        <v>89</v>
+        <v>76</v>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="B62">
-        <v>90</v>
+        <v>76</v>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="B63">
-        <v>91</v>
+        <v>77</v>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="B64">
-        <v>91</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="B65">
-        <v>92</v>
+        <v>78</v>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="B66">
-        <v>93</v>
+        <v>79</v>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="B67">
-        <v>93</v>
+        <v>80</v>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="B68">
-        <v>94</v>
+        <v>80</v>
       </c>
     </row>
     <row r="69">
       <c r="A69">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="B69">
-        <v>95</v>
+        <v>81</v>
       </c>
     </row>
     <row r="70">
       <c r="A70">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="B70">
-        <v>96</v>
+        <v>82</v>
       </c>
     </row>
     <row r="71">
       <c r="A71">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="B71">
-        <v>96</v>
+        <v>82</v>
       </c>
     </row>
     <row r="72">
       <c r="A72">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="B72">
-        <v>97</v>
+        <v>83</v>
       </c>
     </row>
     <row r="73">
       <c r="A73">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="B73">
-        <v>98</v>
+        <v>84</v>
       </c>
     </row>
     <row r="74">
       <c r="A74">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="B74">
-        <v>99</v>
+        <v>84</v>
       </c>
     </row>
     <row r="75">
       <c r="A75">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="B75">
-        <v>99</v>
+        <v>85</v>
       </c>
     </row>
     <row r="76">
       <c r="A76">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="B76">
-        <v>100</v>
+        <v>86</v>
       </c>
     </row>
     <row r="77">
       <c r="A77">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="B77">
-        <v>101</v>
+        <v>87</v>
       </c>
     </row>
     <row r="78">
       <c r="A78">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="B78">
-        <v>102</v>
+        <v>87</v>
       </c>
     </row>
     <row r="79">
       <c r="A79">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="B79">
-        <v>102</v>
+        <v>88</v>
       </c>
     </row>
     <row r="80">
       <c r="A80">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="B80">
-        <v>103</v>
+        <v>89</v>
       </c>
     </row>
     <row r="81">
       <c r="A81">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="B81">
-        <v>104</v>
+        <v>89</v>
       </c>
     </row>
     <row r="82">
       <c r="A82">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="B82">
-        <v>105</v>
+        <v>90</v>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="B83">
-        <v>106</v>
+        <v>91</v>
       </c>
     </row>
     <row r="84">
       <c r="A84">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="B84">
-        <v>106</v>
+        <v>91</v>
       </c>
     </row>
     <row r="85">
       <c r="A85">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="B85">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="86">
       <c r="A86">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="B86">
-        <v>108</v>
+        <v>93</v>
       </c>
     </row>
     <row r="87">
       <c r="A87">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="B87">
-        <v>109</v>
+        <v>93</v>
       </c>
     </row>
     <row r="88">
       <c r="A88">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="B88">
-        <v>110</v>
+        <v>94</v>
       </c>
     </row>
     <row r="89">
       <c r="A89">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="B89">
-        <v>110</v>
+        <v>95</v>
       </c>
     </row>
     <row r="90">
       <c r="A90">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="B90">
-        <v>111</v>
+        <v>96</v>
       </c>
     </row>
     <row r="91">
       <c r="A91">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="B91">
-        <v>112</v>
+        <v>96</v>
       </c>
     </row>
     <row r="92">
       <c r="A92">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="B92">
-        <v>113</v>
+        <v>97</v>
       </c>
     </row>
     <row r="93">
       <c r="A93">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="B93">
-        <v>114</v>
+        <v>98</v>
       </c>
     </row>
     <row r="94">
       <c r="A94">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="B94">
-        <v>114</v>
+        <v>98</v>
       </c>
     </row>
     <row r="95">
       <c r="A95">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="B95">
-        <v>115</v>
+        <v>99</v>
       </c>
     </row>
     <row r="96">
       <c r="A96">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="B96">
-        <v>116</v>
+        <v>100</v>
       </c>
     </row>
     <row r="97">
       <c r="A97">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="B97">
-        <v>117</v>
+        <v>101</v>
       </c>
     </row>
     <row r="98">
       <c r="A98">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="B98">
-        <v>118</v>
+        <v>101</v>
       </c>
     </row>
     <row r="99">
       <c r="A99">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="B99">
-        <v>119</v>
+        <v>102</v>
       </c>
     </row>
     <row r="100">
       <c r="A100">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="B100">
-        <v>120</v>
+        <v>103</v>
       </c>
     </row>
     <row r="101">
       <c r="A101">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="B101">
-        <v>121</v>
+        <v>104</v>
       </c>
     </row>
     <row r="102">
       <c r="A102">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="B102">
-        <v>121</v>
+        <v>104</v>
       </c>
     </row>
     <row r="103">
       <c r="A103">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="B103">
-        <v>122</v>
+        <v>105</v>
       </c>
     </row>
     <row r="104">
       <c r="A104">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="B104">
-        <v>123</v>
+        <v>106</v>
       </c>
     </row>
     <row r="105">
       <c r="A105">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="B105">
-        <v>124</v>
+        <v>107</v>
       </c>
     </row>
     <row r="106">
       <c r="A106">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="B106">
-        <v>125</v>
+        <v>107</v>
       </c>
     </row>
     <row r="107">
       <c r="A107">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="B107">
-        <v>126</v>
+        <v>108</v>
       </c>
     </row>
     <row r="108">
       <c r="A108">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="B108">
-        <v>127</v>
+        <v>109</v>
       </c>
     </row>
     <row r="109">
       <c r="A109">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="B109">
-        <v>128</v>
+        <v>110</v>
       </c>
     </row>
     <row r="110">
       <c r="A110">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="B110">
-        <v>129</v>
+        <v>111</v>
       </c>
     </row>
     <row r="111">
       <c r="A111">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="B111">
-        <v>130</v>
+        <v>111</v>
       </c>
     </row>
     <row r="112">
       <c r="A112">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="B112">
-        <v>130</v>
+        <v>112</v>
       </c>
     </row>
     <row r="113">
       <c r="A113">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="B113">
-        <v>130</v>
+        <v>113</v>
       </c>
     </row>
     <row r="114">
       <c r="A114">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="B114">
-        <v>130</v>
+        <v>114</v>
       </c>
     </row>
     <row r="115">
       <c r="A115">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="B115">
-        <v>130</v>
+        <v>115</v>
       </c>
     </row>
     <row r="116">
       <c r="A116">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="B116">
-        <v>130</v>
+        <v>116</v>
       </c>
     </row>
     <row r="117">
       <c r="A117">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="B117">
-        <v>130</v>
+        <v>117</v>
       </c>
     </row>
     <row r="118">
       <c r="A118">
+        <v>96</v>
+      </c>
+      <c r="B118">
         <v>117</v>
-      </c>
-      <c r="B118">
-        <v>130</v>
       </c>
     </row>
     <row r="119">
       <c r="A119">
+        <v>97</v>
+      </c>
+      <c r="B119">
         <v>118</v>
-      </c>
-      <c r="B119">
-        <v>130</v>
       </c>
     </row>
     <row r="120">
       <c r="A120">
+        <v>98</v>
+      </c>
+      <c r="B120">
         <v>119</v>
-      </c>
-      <c r="B120">
-        <v>130</v>
       </c>
     </row>
     <row r="121">
       <c r="A121">
+        <v>99</v>
+      </c>
+      <c r="B121">
         <v>120</v>
       </c>
-      <c r="B121">
+    </row>
+    <row r="122">
+      <c r="A122">
+        <v>100</v>
+      </c>
+      <c r="B122">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123">
+        <v>101</v>
+      </c>
+      <c r="B123">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124">
+        <v>102</v>
+      </c>
+      <c r="B124">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125">
+        <v>103</v>
+      </c>
+      <c r="B125">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126">
+        <v>104</v>
+      </c>
+      <c r="B126">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127">
+        <v>105</v>
+      </c>
+      <c r="B127">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128">
+        <v>106</v>
+      </c>
+      <c r="B128">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129">
+        <v>107</v>
+      </c>
+      <c r="B129">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130">
+        <v>108</v>
+      </c>
+      <c r="B130">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131">
+        <v>109</v>
+      </c>
+      <c r="B131">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132">
+        <v>110</v>
+      </c>
+      <c r="B132">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133">
+        <v>111</v>
+      </c>
+      <c r="B133">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134">
+        <v>112</v>
+      </c>
+      <c r="B134">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135">
+        <v>113</v>
+      </c>
+      <c r="B135">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136">
+        <v>114</v>
+      </c>
+      <c r="B136">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137">
+        <v>115</v>
+      </c>
+      <c r="B137">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138">
+        <v>116</v>
+      </c>
+      <c r="B138">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139">
+        <v>117</v>
+      </c>
+      <c r="B139">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140">
+        <v>118</v>
+      </c>
+      <c r="B140">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141">
+        <v>119</v>
+      </c>
+      <c r="B141">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142">
+        <v>120</v>
+      </c>
+      <c r="B142">
         <v>130</v>
       </c>
     </row>
@@ -5281,7 +6121,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B121"/>
+  <dimension ref="A1:B142"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5301,961 +6141,1129 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>-20</v>
       </c>
       <c r="B2">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>-19</v>
       </c>
       <c r="B3">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>-18</v>
       </c>
       <c r="B4">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>-17</v>
       </c>
       <c r="B5">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>-16</v>
       </c>
       <c r="B6">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>-15</v>
       </c>
       <c r="B7">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>-14</v>
       </c>
       <c r="B8">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>-13</v>
       </c>
       <c r="B9">
-        <v>51</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>-12</v>
       </c>
       <c r="B10">
-        <v>52</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>-11</v>
       </c>
       <c r="B11">
-        <v>52</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>-10</v>
       </c>
       <c r="B12">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>-9</v>
       </c>
       <c r="B13">
-        <v>53</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>-8</v>
       </c>
       <c r="B14">
-        <v>54</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>-7</v>
       </c>
       <c r="B15">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>-6</v>
       </c>
       <c r="B16">
-        <v>55</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>-5</v>
       </c>
       <c r="B17">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>-4</v>
       </c>
       <c r="B18">
-        <v>57</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>-3</v>
       </c>
       <c r="B19">
-        <v>57</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>-2</v>
       </c>
       <c r="B20">
-        <v>58</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>-1</v>
       </c>
       <c r="B21">
-        <v>58</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="B22">
-        <v>59</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="B23">
-        <v>60</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="B24">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="B25">
-        <v>61</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="B26">
-        <v>62</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="B27">
-        <v>62</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="B28">
-        <v>63</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="B29">
-        <v>63</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="B30">
-        <v>64</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="B31">
-        <v>65</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="B32">
-        <v>65</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="B33">
-        <v>66</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="B34">
-        <v>67</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="B35">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="B36">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="B37">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="B38">
-        <v>69</v>
+        <v>57</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="B39">
-        <v>70</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="B40">
-        <v>70</v>
+        <v>58</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="B41">
-        <v>71</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="B42">
-        <v>72</v>
+        <v>59</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="B43">
-        <v>72</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B44">
-        <v>73</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="B45">
-        <v>74</v>
+        <v>61</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="B46">
-        <v>74</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="B47">
-        <v>75</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="B48">
-        <v>76</v>
+        <v>63</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="B49">
-        <v>76</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="B50">
-        <v>77</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="B51">
-        <v>78</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="B52">
-        <v>78</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="B53">
-        <v>79</v>
+        <v>66</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="B54">
-        <v>80</v>
+        <v>66</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="B55">
-        <v>80</v>
+        <v>67</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="B56">
-        <v>81</v>
+        <v>68</v>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="B57">
-        <v>82</v>
+        <v>68</v>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="B58">
-        <v>82</v>
+        <v>69</v>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="B59">
-        <v>83</v>
+        <v>69</v>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="B60">
-        <v>84</v>
+        <v>70</v>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="B61">
-        <v>85</v>
+        <v>71</v>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="B62">
-        <v>85</v>
+        <v>71</v>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="B63">
-        <v>86</v>
+        <v>72</v>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="B64">
-        <v>87</v>
+        <v>73</v>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="B65">
-        <v>87</v>
+        <v>73</v>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="B66">
-        <v>88</v>
+        <v>74</v>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="B67">
-        <v>89</v>
+        <v>74</v>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="B68">
-        <v>89</v>
+        <v>75</v>
       </c>
     </row>
     <row r="69">
       <c r="A69">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="B69">
-        <v>90</v>
+        <v>76</v>
       </c>
     </row>
     <row r="70">
       <c r="A70">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="B70">
-        <v>91</v>
+        <v>76</v>
       </c>
     </row>
     <row r="71">
       <c r="A71">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="B71">
-        <v>92</v>
+        <v>77</v>
       </c>
     </row>
     <row r="72">
       <c r="A72">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="B72">
-        <v>92</v>
+        <v>78</v>
       </c>
     </row>
     <row r="73">
       <c r="A73">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="B73">
-        <v>93</v>
+        <v>78</v>
       </c>
     </row>
     <row r="74">
       <c r="A74">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="B74">
-        <v>94</v>
+        <v>79</v>
       </c>
     </row>
     <row r="75">
       <c r="A75">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="B75">
-        <v>95</v>
+        <v>79</v>
       </c>
     </row>
     <row r="76">
       <c r="A76">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="B76">
-        <v>95</v>
+        <v>80</v>
       </c>
     </row>
     <row r="77">
       <c r="A77">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="B77">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="78">
       <c r="A78">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="B78">
-        <v>97</v>
+        <v>81</v>
       </c>
     </row>
     <row r="79">
       <c r="A79">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="B79">
-        <v>98</v>
+        <v>82</v>
       </c>
     </row>
     <row r="80">
       <c r="A80">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="B80">
-        <v>98</v>
+        <v>83</v>
       </c>
     </row>
     <row r="81">
       <c r="A81">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="B81">
-        <v>99</v>
+        <v>83</v>
       </c>
     </row>
     <row r="82">
       <c r="A82">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="B82">
-        <v>100</v>
+        <v>84</v>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="B83">
-        <v>101</v>
+        <v>85</v>
       </c>
     </row>
     <row r="84">
       <c r="A84">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="B84">
-        <v>101</v>
+        <v>85</v>
       </c>
     </row>
     <row r="85">
       <c r="A85">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="B85">
-        <v>102</v>
+        <v>86</v>
       </c>
     </row>
     <row r="86">
       <c r="A86">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="B86">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="87">
       <c r="A87">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="B87">
-        <v>104</v>
+        <v>87</v>
       </c>
     </row>
     <row r="88">
       <c r="A88">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="B88">
-        <v>105</v>
+        <v>88</v>
       </c>
     </row>
     <row r="89">
       <c r="A89">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="B89">
-        <v>105</v>
+        <v>89</v>
       </c>
     </row>
     <row r="90">
       <c r="A90">
+        <v>68</v>
+      </c>
+      <c r="B90">
         <v>89</v>
-      </c>
-      <c r="B90">
-        <v>106</v>
       </c>
     </row>
     <row r="91">
       <c r="A91">
+        <v>69</v>
+      </c>
+      <c r="B91">
         <v>90</v>
-      </c>
-      <c r="B91">
-        <v>107</v>
       </c>
     </row>
     <row r="92">
       <c r="A92">
+        <v>70</v>
+      </c>
+      <c r="B92">
         <v>91</v>
-      </c>
-      <c r="B92">
-        <v>108</v>
       </c>
     </row>
     <row r="93">
       <c r="A93">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="B93">
-        <v>109</v>
+        <v>91</v>
       </c>
     </row>
     <row r="94">
       <c r="A94">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="B94">
-        <v>110</v>
+        <v>92</v>
       </c>
     </row>
     <row r="95">
       <c r="A95">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="B95">
-        <v>111</v>
+        <v>93</v>
       </c>
     </row>
     <row r="96">
       <c r="A96">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="B96">
-        <v>111</v>
+        <v>93</v>
       </c>
     </row>
     <row r="97">
       <c r="A97">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="B97">
-        <v>112</v>
+        <v>94</v>
       </c>
     </row>
     <row r="98">
       <c r="A98">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="B98">
-        <v>113</v>
+        <v>95</v>
       </c>
     </row>
     <row r="99">
       <c r="A99">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="B99">
-        <v>114</v>
+        <v>96</v>
       </c>
     </row>
     <row r="100">
       <c r="A100">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="B100">
-        <v>115</v>
+        <v>96</v>
       </c>
     </row>
     <row r="101">
       <c r="A101">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="B101">
-        <v>116</v>
+        <v>97</v>
       </c>
     </row>
     <row r="102">
       <c r="A102">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="B102">
-        <v>117</v>
+        <v>98</v>
       </c>
     </row>
     <row r="103">
       <c r="A103">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="B103">
-        <v>118</v>
+        <v>99</v>
       </c>
     </row>
     <row r="104">
       <c r="A104">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="B104">
-        <v>119</v>
+        <v>99</v>
       </c>
     </row>
     <row r="105">
       <c r="A105">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="B105">
-        <v>120</v>
+        <v>100</v>
       </c>
     </row>
     <row r="106">
       <c r="A106">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="B106">
-        <v>121</v>
+        <v>101</v>
       </c>
     </row>
     <row r="107">
       <c r="A107">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="B107">
-        <v>122</v>
+        <v>102</v>
       </c>
     </row>
     <row r="108">
       <c r="A108">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="B108">
-        <v>123</v>
+        <v>102</v>
       </c>
     </row>
     <row r="109">
       <c r="A109">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="B109">
-        <v>124</v>
+        <v>103</v>
       </c>
     </row>
     <row r="110">
       <c r="A110">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="B110">
-        <v>125</v>
+        <v>104</v>
       </c>
     </row>
     <row r="111">
       <c r="A111">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="B111">
-        <v>126</v>
+        <v>105</v>
       </c>
     </row>
     <row r="112">
       <c r="A112">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="B112">
-        <v>128</v>
+        <v>106</v>
       </c>
     </row>
     <row r="113">
       <c r="A113">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="B113">
-        <v>129</v>
+        <v>107</v>
       </c>
     </row>
     <row r="114">
       <c r="A114">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="B114">
-        <v>130</v>
+        <v>107</v>
       </c>
     </row>
     <row r="115">
       <c r="A115">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="B115">
-        <v>130</v>
+        <v>108</v>
       </c>
     </row>
     <row r="116">
       <c r="A116">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="B116">
-        <v>130</v>
+        <v>109</v>
       </c>
     </row>
     <row r="117">
       <c r="A117">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="B117">
-        <v>130</v>
+        <v>110</v>
       </c>
     </row>
     <row r="118">
       <c r="A118">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="B118">
-        <v>130</v>
+        <v>111</v>
       </c>
     </row>
     <row r="119">
       <c r="A119">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="B119">
-        <v>130</v>
+        <v>112</v>
       </c>
     </row>
     <row r="120">
       <c r="A120">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="B120">
-        <v>130</v>
+        <v>113</v>
       </c>
     </row>
     <row r="121">
       <c r="A121">
+        <v>99</v>
+      </c>
+      <c r="B121">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122">
+        <v>100</v>
+      </c>
+      <c r="B122">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123">
+        <v>101</v>
+      </c>
+      <c r="B123">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124">
+        <v>102</v>
+      </c>
+      <c r="B124">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125">
+        <v>103</v>
+      </c>
+      <c r="B125">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126">
+        <v>104</v>
+      </c>
+      <c r="B126">
         <v>120</v>
       </c>
-      <c r="B121">
+    </row>
+    <row r="127">
+      <c r="A127">
+        <v>105</v>
+      </c>
+      <c r="B127">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128">
+        <v>106</v>
+      </c>
+      <c r="B128">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129">
+        <v>107</v>
+      </c>
+      <c r="B129">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130">
+        <v>108</v>
+      </c>
+      <c r="B130">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131">
+        <v>109</v>
+      </c>
+      <c r="B131">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132">
+        <v>110</v>
+      </c>
+      <c r="B132">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133">
+        <v>111</v>
+      </c>
+      <c r="B133">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134">
+        <v>112</v>
+      </c>
+      <c r="B134">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135">
+        <v>113</v>
+      </c>
+      <c r="B135">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136">
+        <v>114</v>
+      </c>
+      <c r="B136">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137">
+        <v>115</v>
+      </c>
+      <c r="B137">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138">
+        <v>116</v>
+      </c>
+      <c r="B138">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139">
+        <v>117</v>
+      </c>
+      <c r="B139">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140">
+        <v>118</v>
+      </c>
+      <c r="B140">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141">
+        <v>119</v>
+      </c>
+      <c r="B141">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142">
+        <v>120</v>
+      </c>
+      <c r="B142">
         <v>130</v>
       </c>
     </row>

--- a/OUTPUT-FILES/NORMS/TODE_8.27.21_fornorms/rlne_sum-raw-ss-lookup-tabbed-grade.xlsx
+++ b/OUTPUT-FILES/NORMS/TODE_8.27.21_fornorms/rlne_sum-raw-ss-lookup-tabbed-grade.xlsx
@@ -356,7 +356,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B142"/>
+  <dimension ref="A1:B122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -376,775 +376,775 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>43</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>-19</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>44</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>-18</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>45</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>-17</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>46</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>-16</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>47</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>-15</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>48</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>-14</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>49</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>-13</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>50</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>-12</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>51</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>-11</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>52</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>52</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>-9</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>53</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>-8</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>54</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>-7</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>55</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>-6</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>56</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>-5</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>57</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>-4</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>58</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>-3</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>59</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>-2</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>60</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>-1</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>61</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>62</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>63</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>64</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>64</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>65</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>66</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>67</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>68</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>69</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>70</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>71</v>
+        <v>89</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>72</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>73</v>
+        <v>91</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>74</v>
+        <v>92</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="B36">
-        <v>75</v>
+        <v>93</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="B37">
-        <v>75</v>
+        <v>94</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="B38">
-        <v>76</v>
+        <v>95</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="B39">
-        <v>77</v>
+        <v>95</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="B40">
-        <v>78</v>
+        <v>96</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="B41">
-        <v>79</v>
+        <v>97</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="B42">
-        <v>80</v>
+        <v>98</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="B43">
-        <v>81</v>
+        <v>99</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="B44">
-        <v>82</v>
+        <v>100</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="B45">
-        <v>83</v>
+        <v>101</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="B46">
-        <v>84</v>
+        <v>102</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="B47">
-        <v>85</v>
+        <v>103</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="B48">
-        <v>85</v>
+        <v>104</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="B49">
-        <v>86</v>
+        <v>104</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="B50">
-        <v>87</v>
+        <v>105</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="B51">
-        <v>88</v>
+        <v>106</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="B52">
-        <v>89</v>
+        <v>107</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="B53">
-        <v>90</v>
+        <v>108</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="B54">
-        <v>91</v>
+        <v>109</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="B55">
-        <v>92</v>
+        <v>110</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="B56">
-        <v>93</v>
+        <v>111</v>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="B57">
-        <v>94</v>
+        <v>112</v>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="B58">
-        <v>95</v>
+        <v>113</v>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="B59">
-        <v>95</v>
+        <v>113</v>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="B60">
-        <v>96</v>
+        <v>114</v>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="B61">
-        <v>97</v>
+        <v>115</v>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="B62">
-        <v>98</v>
+        <v>116</v>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="B63">
-        <v>99</v>
+        <v>117</v>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="B64">
-        <v>100</v>
+        <v>118</v>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="B65">
-        <v>101</v>
+        <v>119</v>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="B66">
-        <v>102</v>
+        <v>120</v>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="B67">
-        <v>103</v>
+        <v>121</v>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="B68">
-        <v>104</v>
+        <v>121</v>
       </c>
     </row>
     <row r="69">
       <c r="A69">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="B69">
-        <v>104</v>
+        <v>122</v>
       </c>
     </row>
     <row r="70">
       <c r="A70">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="B70">
-        <v>105</v>
+        <v>123</v>
       </c>
     </row>
     <row r="71">
       <c r="A71">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="B71">
-        <v>106</v>
+        <v>124</v>
       </c>
     </row>
     <row r="72">
       <c r="A72">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="B72">
-        <v>107</v>
+        <v>125</v>
       </c>
     </row>
     <row r="73">
       <c r="A73">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="B73">
-        <v>108</v>
+        <v>126</v>
       </c>
     </row>
     <row r="74">
       <c r="A74">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="B74">
-        <v>109</v>
+        <v>127</v>
       </c>
     </row>
     <row r="75">
       <c r="A75">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="B75">
-        <v>110</v>
+        <v>128</v>
       </c>
     </row>
     <row r="76">
       <c r="A76">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="B76">
-        <v>111</v>
+        <v>129</v>
       </c>
     </row>
     <row r="77">
       <c r="A77">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="B77">
-        <v>112</v>
+        <v>129</v>
       </c>
     </row>
     <row r="78">
       <c r="A78">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="B78">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="79">
       <c r="A79">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="B79">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="80">
       <c r="A80">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="B80">
-        <v>114</v>
+        <v>130</v>
       </c>
     </row>
     <row r="81">
       <c r="A81">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="B81">
-        <v>115</v>
+        <v>130</v>
       </c>
     </row>
     <row r="82">
       <c r="A82">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="B82">
-        <v>116</v>
+        <v>130</v>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="B83">
-        <v>117</v>
+        <v>130</v>
       </c>
     </row>
     <row r="84">
       <c r="A84">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="B84">
-        <v>118</v>
+        <v>130</v>
       </c>
     </row>
     <row r="85">
       <c r="A85">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="B85">
-        <v>119</v>
+        <v>130</v>
       </c>
     </row>
     <row r="86">
       <c r="A86">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="B86">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="87">
       <c r="A87">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="B87">
-        <v>121</v>
+        <v>130</v>
       </c>
     </row>
     <row r="88">
       <c r="A88">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="B88">
-        <v>121</v>
+        <v>130</v>
       </c>
     </row>
     <row r="89">
       <c r="A89">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="B89">
-        <v>122</v>
+        <v>130</v>
       </c>
     </row>
     <row r="90">
       <c r="A90">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="B90">
-        <v>123</v>
+        <v>130</v>
       </c>
     </row>
     <row r="91">
       <c r="A91">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="B91">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="92">
       <c r="A92">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="B92">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="93">
       <c r="A93">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="B93">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="94">
       <c r="A94">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="B94">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="95">
       <c r="A95">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="B95">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="96">
       <c r="A96">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="B96">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="97">
       <c r="A97">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="B97">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="98">
       <c r="A98">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="B98">
         <v>130</v>
@@ -1152,7 +1152,7 @@
     </row>
     <row r="99">
       <c r="A99">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="B99">
         <v>130</v>
@@ -1160,7 +1160,7 @@
     </row>
     <row r="100">
       <c r="A100">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="B100">
         <v>130</v>
@@ -1168,7 +1168,7 @@
     </row>
     <row r="101">
       <c r="A101">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="B101">
         <v>130</v>
@@ -1176,7 +1176,7 @@
     </row>
     <row r="102">
       <c r="A102">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="B102">
         <v>130</v>
@@ -1184,7 +1184,7 @@
     </row>
     <row r="103">
       <c r="A103">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="B103">
         <v>130</v>
@@ -1192,7 +1192,7 @@
     </row>
     <row r="104">
       <c r="A104">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="B104">
         <v>130</v>
@@ -1200,7 +1200,7 @@
     </row>
     <row r="105">
       <c r="A105">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="B105">
         <v>130</v>
@@ -1208,7 +1208,7 @@
     </row>
     <row r="106">
       <c r="A106">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="B106">
         <v>130</v>
@@ -1216,7 +1216,7 @@
     </row>
     <row r="107">
       <c r="A107">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="B107">
         <v>130</v>
@@ -1224,7 +1224,7 @@
     </row>
     <row r="108">
       <c r="A108">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="B108">
         <v>130</v>
@@ -1232,7 +1232,7 @@
     </row>
     <row r="109">
       <c r="A109">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="B109">
         <v>130</v>
@@ -1240,7 +1240,7 @@
     </row>
     <row r="110">
       <c r="A110">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="B110">
         <v>130</v>
@@ -1248,7 +1248,7 @@
     </row>
     <row r="111">
       <c r="A111">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="B111">
         <v>130</v>
@@ -1256,7 +1256,7 @@
     </row>
     <row r="112">
       <c r="A112">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="B112">
         <v>130</v>
@@ -1264,7 +1264,7 @@
     </row>
     <row r="113">
       <c r="A113">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="B113">
         <v>130</v>
@@ -1272,7 +1272,7 @@
     </row>
     <row r="114">
       <c r="A114">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="B114">
         <v>130</v>
@@ -1280,7 +1280,7 @@
     </row>
     <row r="115">
       <c r="A115">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="B115">
         <v>130</v>
@@ -1288,7 +1288,7 @@
     </row>
     <row r="116">
       <c r="A116">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="B116">
         <v>130</v>
@@ -1296,7 +1296,7 @@
     </row>
     <row r="117">
       <c r="A117">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="B117">
         <v>130</v>
@@ -1304,7 +1304,7 @@
     </row>
     <row r="118">
       <c r="A118">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="B118">
         <v>130</v>
@@ -1312,7 +1312,7 @@
     </row>
     <row r="119">
       <c r="A119">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="B119">
         <v>130</v>
@@ -1320,7 +1320,7 @@
     </row>
     <row r="120">
       <c r="A120">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="B120">
         <v>130</v>
@@ -1328,7 +1328,7 @@
     </row>
     <row r="121">
       <c r="A121">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="B121">
         <v>130</v>
@@ -1336,169 +1336,9 @@
     </row>
     <row r="122">
       <c r="A122">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="B122">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123">
-        <v>101</v>
-      </c>
-      <c r="B123">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124">
-        <v>102</v>
-      </c>
-      <c r="B124">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125">
-        <v>103</v>
-      </c>
-      <c r="B125">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126">
-        <v>104</v>
-      </c>
-      <c r="B126">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127">
-        <v>105</v>
-      </c>
-      <c r="B127">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128">
-        <v>106</v>
-      </c>
-      <c r="B128">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129">
-        <v>107</v>
-      </c>
-      <c r="B129">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130">
-        <v>108</v>
-      </c>
-      <c r="B130">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131">
-        <v>109</v>
-      </c>
-      <c r="B131">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132">
-        <v>110</v>
-      </c>
-      <c r="B132">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133">
-        <v>111</v>
-      </c>
-      <c r="B133">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134">
-        <v>112</v>
-      </c>
-      <c r="B134">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135">
-        <v>113</v>
-      </c>
-      <c r="B135">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136">
-        <v>114</v>
-      </c>
-      <c r="B136">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137">
-        <v>115</v>
-      </c>
-      <c r="B137">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138">
-        <v>116</v>
-      </c>
-      <c r="B138">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139">
-        <v>117</v>
-      </c>
-      <c r="B139">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140">
-        <v>118</v>
-      </c>
-      <c r="B140">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141">
-        <v>119</v>
-      </c>
-      <c r="B141">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142">
-        <v>120</v>
-      </c>
-      <c r="B142">
         <v>130</v>
       </c>
     </row>
@@ -1509,7 +1349,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B142"/>
+  <dimension ref="A1:B122"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1529,887 +1369,887 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>41</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>-19</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>42</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>-18</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>43</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>-17</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>44</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>-16</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>45</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>-15</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>46</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>-14</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>47</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>-13</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>47</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>-12</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>48</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>-11</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>49</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>50</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>-9</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>51</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>-8</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>52</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>-7</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>52</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>-6</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>53</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>-5</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>54</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>-4</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>55</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>-3</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>56</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>-2</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>57</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>-1</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>58</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>58</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>59</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>60</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>61</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>62</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>62</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>63</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>64</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>65</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>66</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>67</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>68</v>
+        <v>84</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>69</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="B36">
-        <v>70</v>
+        <v>86</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="B37">
-        <v>71</v>
+        <v>87</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="B38">
-        <v>72</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="B39">
-        <v>72</v>
+        <v>88</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="B40">
-        <v>73</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="B41">
-        <v>74</v>
+        <v>90</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="B42">
-        <v>75</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="B43">
-        <v>76</v>
+        <v>92</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="B44">
-        <v>76</v>
+        <v>92</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="B45">
-        <v>77</v>
+        <v>93</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="B46">
-        <v>78</v>
+        <v>94</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="B47">
-        <v>79</v>
+        <v>95</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="B48">
-        <v>80</v>
+        <v>96</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="B49">
-        <v>80</v>
+        <v>96</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="B50">
-        <v>81</v>
+        <v>97</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="B51">
-        <v>82</v>
+        <v>98</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="B52">
-        <v>83</v>
+        <v>99</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="B53">
-        <v>84</v>
+        <v>99</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="B54">
-        <v>84</v>
+        <v>100</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="B55">
-        <v>85</v>
+        <v>101</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="B56">
-        <v>86</v>
+        <v>102</v>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="B57">
-        <v>87</v>
+        <v>103</v>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="B58">
-        <v>88</v>
+        <v>103</v>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="B59">
-        <v>88</v>
+        <v>104</v>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="B60">
-        <v>89</v>
+        <v>105</v>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="B61">
-        <v>90</v>
+        <v>106</v>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="B62">
-        <v>91</v>
+        <v>107</v>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="B63">
-        <v>92</v>
+        <v>107</v>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="B64">
-        <v>92</v>
+        <v>108</v>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="B65">
-        <v>93</v>
+        <v>109</v>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="B66">
-        <v>94</v>
+        <v>110</v>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="B67">
-        <v>95</v>
+        <v>110</v>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="B68">
-        <v>96</v>
+        <v>111</v>
       </c>
     </row>
     <row r="69">
       <c r="A69">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="B69">
-        <v>96</v>
+        <v>112</v>
       </c>
     </row>
     <row r="70">
       <c r="A70">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="B70">
-        <v>97</v>
+        <v>113</v>
       </c>
     </row>
     <row r="71">
       <c r="A71">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="B71">
-        <v>98</v>
+        <v>114</v>
       </c>
     </row>
     <row r="72">
       <c r="A72">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="B72">
-        <v>99</v>
+        <v>114</v>
       </c>
     </row>
     <row r="73">
       <c r="A73">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="B73">
-        <v>99</v>
+        <v>115</v>
       </c>
     </row>
     <row r="74">
       <c r="A74">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="B74">
-        <v>100</v>
+        <v>116</v>
       </c>
     </row>
     <row r="75">
       <c r="A75">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="B75">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="76">
       <c r="A76">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="B76">
-        <v>102</v>
+        <v>117</v>
       </c>
     </row>
     <row r="77">
       <c r="A77">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="B77">
-        <v>103</v>
+        <v>118</v>
       </c>
     </row>
     <row r="78">
       <c r="A78">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="B78">
-        <v>103</v>
+        <v>119</v>
       </c>
     </row>
     <row r="79">
       <c r="A79">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="B79">
-        <v>104</v>
+        <v>120</v>
       </c>
     </row>
     <row r="80">
       <c r="A80">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="B80">
-        <v>105</v>
+        <v>121</v>
       </c>
     </row>
     <row r="81">
       <c r="A81">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="B81">
-        <v>106</v>
+        <v>121</v>
       </c>
     </row>
     <row r="82">
       <c r="A82">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="B82">
-        <v>107</v>
+        <v>122</v>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="B83">
-        <v>107</v>
+        <v>123</v>
       </c>
     </row>
     <row r="84">
       <c r="A84">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="B84">
-        <v>108</v>
+        <v>124</v>
       </c>
     </row>
     <row r="85">
       <c r="A85">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="B85">
-        <v>109</v>
+        <v>124</v>
       </c>
     </row>
     <row r="86">
       <c r="A86">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="B86">
-        <v>110</v>
+        <v>125</v>
       </c>
     </row>
     <row r="87">
       <c r="A87">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="B87">
-        <v>110</v>
+        <v>126</v>
       </c>
     </row>
     <row r="88">
       <c r="A88">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="B88">
-        <v>111</v>
+        <v>127</v>
       </c>
     </row>
     <row r="89">
       <c r="A89">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="B89">
-        <v>112</v>
+        <v>128</v>
       </c>
     </row>
     <row r="90">
       <c r="A90">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="B90">
-        <v>113</v>
+        <v>128</v>
       </c>
     </row>
     <row r="91">
       <c r="A91">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="B91">
-        <v>114</v>
+        <v>129</v>
       </c>
     </row>
     <row r="92">
       <c r="A92">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="B92">
-        <v>114</v>
+        <v>130</v>
       </c>
     </row>
     <row r="93">
       <c r="A93">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="B93">
-        <v>115</v>
+        <v>130</v>
       </c>
     </row>
     <row r="94">
       <c r="A94">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="B94">
-        <v>116</v>
+        <v>130</v>
       </c>
     </row>
     <row r="95">
       <c r="A95">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="B95">
-        <v>117</v>
+        <v>130</v>
       </c>
     </row>
     <row r="96">
       <c r="A96">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="B96">
-        <v>117</v>
+        <v>130</v>
       </c>
     </row>
     <row r="97">
       <c r="A97">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="B97">
-        <v>118</v>
+        <v>130</v>
       </c>
     </row>
     <row r="98">
       <c r="A98">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="B98">
-        <v>119</v>
+        <v>130</v>
       </c>
     </row>
     <row r="99">
       <c r="A99">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="B99">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="100">
       <c r="A100">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="B100">
-        <v>121</v>
+        <v>130</v>
       </c>
     </row>
     <row r="101">
       <c r="A101">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="B101">
-        <v>121</v>
+        <v>130</v>
       </c>
     </row>
     <row r="102">
       <c r="A102">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="B102">
-        <v>122</v>
+        <v>130</v>
       </c>
     </row>
     <row r="103">
       <c r="A103">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="B103">
-        <v>123</v>
+        <v>130</v>
       </c>
     </row>
     <row r="104">
       <c r="A104">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="B104">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="105">
       <c r="A105">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="B105">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="106">
       <c r="A106">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="B106">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="107">
       <c r="A107">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="B107">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="108">
       <c r="A108">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="B108">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="109">
       <c r="A109">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="B109">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="110">
       <c r="A110">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="B110">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="111">
       <c r="A111">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="B111">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="112">
       <c r="A112">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="B112">
         <v>130</v>
@@ -2417,7 +2257,7 @@
     </row>
     <row r="113">
       <c r="A113">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="B113">
         <v>130</v>
@@ -2425,7 +2265,7 @@
     </row>
     <row r="114">
       <c r="A114">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="B114">
         <v>130</v>
@@ -2433,7 +2273,7 @@
     </row>
     <row r="115">
       <c r="A115">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="B115">
         <v>130</v>
@@ -2441,7 +2281,7 @@
     </row>
     <row r="116">
       <c r="A116">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="B116">
         <v>130</v>
@@ -2449,7 +2289,7 @@
     </row>
     <row r="117">
       <c r="A117">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="B117">
         <v>130</v>
@@ -2457,7 +2297,7 @@
     </row>
     <row r="118">
       <c r="A118">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="B118">
         <v>130</v>
@@ -2465,7 +2305,7 @@
     </row>
     <row r="119">
       <c r="A119">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="B119">
         <v>130</v>
@@ -2473,7 +2313,7 @@
     </row>
     <row r="120">
       <c r="A120">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="B120">
         <v>130</v>
@@ -2481,7 +2321,7 @@
     </row>
     <row r="121">
       <c r="A121">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="B121">
         <v>130</v>
@@ -2489,169 +2329,9 @@
     </row>
     <row r="122">
       <c r="A122">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="B122">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123">
-        <v>101</v>
-      </c>
-      <c r="B123">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124">
-        <v>102</v>
-      </c>
-      <c r="B124">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125">
-        <v>103</v>
-      </c>
-      <c r="B125">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126">
-        <v>104</v>
-      </c>
-      <c r="B126">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127">
-        <v>105</v>
-      </c>
-      <c r="B127">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128">
-        <v>106</v>
-      </c>
-      <c r="B128">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129">
-        <v>107</v>
-      </c>
-      <c r="B129">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130">
-        <v>108</v>
-      </c>
-      <c r="B130">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131">
-        <v>109</v>
-      </c>
-      <c r="B131">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132">
-        <v>110</v>
-      </c>
-      <c r="B132">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133">
-        <v>111</v>
-      </c>
-      <c r="B133">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134">
-        <v>112</v>
-      </c>
-      <c r="B134">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135">
-        <v>113</v>
-      </c>
-      <c r="B135">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136">
-        <v>114</v>
-      </c>
-      <c r="B136">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137">
-        <v>115</v>
-      </c>
-      <c r="B137">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138">
-        <v>116</v>
-      </c>
-      <c r="B138">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139">
-        <v>117</v>
-      </c>
-      <c r="B139">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140">
-        <v>118</v>
-      </c>
-      <c r="B140">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141">
-        <v>119</v>
-      </c>
-      <c r="B141">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142">
-        <v>120</v>
-      </c>
-      <c r="B142">
         <v>130</v>
       </c>
     </row>
@@ -2662,7 +2342,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B142"/>
+  <dimension ref="A1:B122"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2682,1129 +2362,969 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>40</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>-19</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>41</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>-18</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>41</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>-17</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>42</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>-16</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>43</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>-15</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>44</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>-14</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>-13</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>45</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>-12</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>46</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>-11</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>47</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>48</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>-9</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>49</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>-8</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>49</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>-7</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>50</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>-6</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>51</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>-5</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>52</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>-4</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>53</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>-3</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>53</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>-2</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>54</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>-1</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>55</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>56</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>56</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>57</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>58</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>59</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>59</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>60</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>61</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>62</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>62</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>63</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>64</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>65</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>65</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="B36">
-        <v>66</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="B37">
-        <v>67</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="B38">
-        <v>68</v>
+        <v>83</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="B39">
-        <v>68</v>
+        <v>83</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="B40">
-        <v>69</v>
+        <v>84</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="B41">
-        <v>70</v>
+        <v>85</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="B42">
-        <v>71</v>
+        <v>86</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="B43">
-        <v>71</v>
+        <v>86</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="B44">
-        <v>72</v>
+        <v>87</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="B45">
-        <v>73</v>
+        <v>88</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="B46">
-        <v>74</v>
+        <v>88</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="B47">
-        <v>74</v>
+        <v>89</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="B48">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="B49">
-        <v>76</v>
+        <v>91</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="B50">
-        <v>77</v>
+        <v>91</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="B51">
-        <v>77</v>
+        <v>92</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="B52">
-        <v>78</v>
+        <v>93</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="B53">
-        <v>79</v>
+        <v>94</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="B54">
-        <v>80</v>
+        <v>94</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="B55">
-        <v>80</v>
+        <v>95</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="B56">
-        <v>81</v>
+        <v>96</v>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="B57">
-        <v>82</v>
+        <v>97</v>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="B58">
-        <v>83</v>
+        <v>97</v>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="B59">
-        <v>83</v>
+        <v>98</v>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="B60">
-        <v>84</v>
+        <v>99</v>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="B61">
-        <v>85</v>
+        <v>99</v>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="B62">
-        <v>86</v>
+        <v>100</v>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="B63">
-        <v>86</v>
+        <v>101</v>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="B64">
-        <v>87</v>
+        <v>102</v>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="B65">
-        <v>88</v>
+        <v>102</v>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="B66">
-        <v>88</v>
+        <v>103</v>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="B67">
-        <v>89</v>
+        <v>104</v>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="B68">
-        <v>90</v>
+        <v>105</v>
       </c>
     </row>
     <row r="69">
       <c r="A69">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="B69">
-        <v>91</v>
+        <v>105</v>
       </c>
     </row>
     <row r="70">
       <c r="A70">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="B70">
-        <v>91</v>
+        <v>106</v>
       </c>
     </row>
     <row r="71">
       <c r="A71">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="B71">
-        <v>92</v>
+        <v>107</v>
       </c>
     </row>
     <row r="72">
       <c r="A72">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="B72">
-        <v>93</v>
+        <v>108</v>
       </c>
     </row>
     <row r="73">
       <c r="A73">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="B73">
-        <v>94</v>
+        <v>108</v>
       </c>
     </row>
     <row r="74">
       <c r="A74">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="B74">
-        <v>94</v>
+        <v>109</v>
       </c>
     </row>
     <row r="75">
       <c r="A75">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="B75">
-        <v>95</v>
+        <v>110</v>
       </c>
     </row>
     <row r="76">
       <c r="A76">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="B76">
-        <v>96</v>
+        <v>110</v>
       </c>
     </row>
     <row r="77">
       <c r="A77">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="B77">
-        <v>97</v>
+        <v>111</v>
       </c>
     </row>
     <row r="78">
       <c r="A78">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="B78">
-        <v>97</v>
+        <v>112</v>
       </c>
     </row>
     <row r="79">
       <c r="A79">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="B79">
-        <v>98</v>
+        <v>113</v>
       </c>
     </row>
     <row r="80">
       <c r="A80">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="B80">
-        <v>99</v>
+        <v>113</v>
       </c>
     </row>
     <row r="81">
       <c r="A81">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="B81">
-        <v>99</v>
+        <v>114</v>
       </c>
     </row>
     <row r="82">
       <c r="A82">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="B82">
-        <v>100</v>
+        <v>115</v>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="B83">
-        <v>101</v>
+        <v>116</v>
       </c>
     </row>
     <row r="84">
       <c r="A84">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="B84">
-        <v>102</v>
+        <v>116</v>
       </c>
     </row>
     <row r="85">
       <c r="A85">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="B85">
-        <v>102</v>
+        <v>117</v>
       </c>
     </row>
     <row r="86">
       <c r="A86">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="B86">
-        <v>103</v>
+        <v>118</v>
       </c>
     </row>
     <row r="87">
       <c r="A87">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="B87">
-        <v>104</v>
+        <v>119</v>
       </c>
     </row>
     <row r="88">
       <c r="A88">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="B88">
-        <v>105</v>
+        <v>119</v>
       </c>
     </row>
     <row r="89">
       <c r="A89">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="B89">
-        <v>105</v>
+        <v>120</v>
       </c>
     </row>
     <row r="90">
       <c r="A90">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="B90">
-        <v>106</v>
+        <v>121</v>
       </c>
     </row>
     <row r="91">
       <c r="A91">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="B91">
-        <v>107</v>
+        <v>122</v>
       </c>
     </row>
     <row r="92">
       <c r="A92">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="B92">
-        <v>108</v>
+        <v>122</v>
       </c>
     </row>
     <row r="93">
       <c r="A93">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="B93">
-        <v>108</v>
+        <v>123</v>
       </c>
     </row>
     <row r="94">
       <c r="A94">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="B94">
-        <v>109</v>
+        <v>124</v>
       </c>
     </row>
     <row r="95">
       <c r="A95">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="B95">
-        <v>110</v>
+        <v>125</v>
       </c>
     </row>
     <row r="96">
       <c r="A96">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="B96">
-        <v>110</v>
+        <v>126</v>
       </c>
     </row>
     <row r="97">
       <c r="A97">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="B97">
-        <v>111</v>
+        <v>126</v>
       </c>
     </row>
     <row r="98">
       <c r="A98">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="B98">
-        <v>112</v>
+        <v>127</v>
       </c>
     </row>
     <row r="99">
       <c r="A99">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="B99">
-        <v>113</v>
+        <v>128</v>
       </c>
     </row>
     <row r="100">
       <c r="A100">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="B100">
-        <v>113</v>
+        <v>129</v>
       </c>
     </row>
     <row r="101">
       <c r="A101">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="B101">
-        <v>114</v>
+        <v>129</v>
       </c>
     </row>
     <row r="102">
       <c r="A102">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="B102">
-        <v>115</v>
+        <v>130</v>
       </c>
     </row>
     <row r="103">
       <c r="A103">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="B103">
-        <v>116</v>
+        <v>130</v>
       </c>
     </row>
     <row r="104">
       <c r="A104">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="B104">
-        <v>116</v>
+        <v>130</v>
       </c>
     </row>
     <row r="105">
       <c r="A105">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="B105">
-        <v>117</v>
+        <v>130</v>
       </c>
     </row>
     <row r="106">
       <c r="A106">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="B106">
-        <v>118</v>
+        <v>130</v>
       </c>
     </row>
     <row r="107">
       <c r="A107">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="B107">
-        <v>119</v>
+        <v>130</v>
       </c>
     </row>
     <row r="108">
       <c r="A108">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="B108">
-        <v>119</v>
+        <v>130</v>
       </c>
     </row>
     <row r="109">
       <c r="A109">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="B109">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="110">
       <c r="A110">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="B110">
-        <v>121</v>
+        <v>130</v>
       </c>
     </row>
     <row r="111">
       <c r="A111">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="B111">
-        <v>122</v>
+        <v>130</v>
       </c>
     </row>
     <row r="112">
       <c r="A112">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="B112">
-        <v>122</v>
+        <v>130</v>
       </c>
     </row>
     <row r="113">
       <c r="A113">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="B113">
-        <v>123</v>
+        <v>130</v>
       </c>
     </row>
     <row r="114">
       <c r="A114">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="B114">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="115">
       <c r="A115">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="B115">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="116">
       <c r="A116">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="B116">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="117">
       <c r="A117">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="B117">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="118">
       <c r="A118">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="B118">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="119">
       <c r="A119">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="B119">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="120">
       <c r="A120">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="B120">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="121">
       <c r="A121">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="B121">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="122">
       <c r="A122">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="B122">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123">
-        <v>101</v>
-      </c>
-      <c r="B123">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124">
-        <v>102</v>
-      </c>
-      <c r="B124">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125">
-        <v>103</v>
-      </c>
-      <c r="B125">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126">
-        <v>104</v>
-      </c>
-      <c r="B126">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127">
-        <v>105</v>
-      </c>
-      <c r="B127">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128">
-        <v>106</v>
-      </c>
-      <c r="B128">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129">
-        <v>107</v>
-      </c>
-      <c r="B129">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130">
-        <v>108</v>
-      </c>
-      <c r="B130">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131">
-        <v>109</v>
-      </c>
-      <c r="B131">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132">
-        <v>110</v>
-      </c>
-      <c r="B132">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133">
-        <v>111</v>
-      </c>
-      <c r="B133">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134">
-        <v>112</v>
-      </c>
-      <c r="B134">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135">
-        <v>113</v>
-      </c>
-      <c r="B135">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136">
-        <v>114</v>
-      </c>
-      <c r="B136">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137">
-        <v>115</v>
-      </c>
-      <c r="B137">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138">
-        <v>116</v>
-      </c>
-      <c r="B138">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139">
-        <v>117</v>
-      </c>
-      <c r="B139">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140">
-        <v>118</v>
-      </c>
-      <c r="B140">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141">
-        <v>119</v>
-      </c>
-      <c r="B141">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142">
-        <v>120</v>
-      </c>
-      <c r="B142">
         <v>130</v>
       </c>
     </row>
@@ -3815,7 +3335,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B142"/>
+  <dimension ref="A1:B122"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3835,775 +3355,775 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>43</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>-19</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>44</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>-18</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>45</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>-17</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>46</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>-16</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>47</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>-15</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>48</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>-14</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>49</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>-13</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>50</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>-12</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>51</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>-11</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>52</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>52</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>-9</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>53</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>-8</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>54</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>-7</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>55</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>-6</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>56</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>-5</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>57</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>-4</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>58</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>-3</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>59</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>-2</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>60</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>-1</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>61</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>62</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>63</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>64</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>64</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>65</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>66</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>67</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>68</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>69</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>70</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>71</v>
+        <v>89</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>72</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>73</v>
+        <v>91</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>74</v>
+        <v>92</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="B36">
-        <v>75</v>
+        <v>93</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="B37">
-        <v>75</v>
+        <v>94</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="B38">
-        <v>76</v>
+        <v>95</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="B39">
-        <v>77</v>
+        <v>95</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="B40">
-        <v>78</v>
+        <v>96</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="B41">
-        <v>79</v>
+        <v>97</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="B42">
-        <v>80</v>
+        <v>98</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="B43">
-        <v>81</v>
+        <v>99</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="B44">
-        <v>82</v>
+        <v>100</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="B45">
-        <v>83</v>
+        <v>101</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="B46">
-        <v>84</v>
+        <v>102</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="B47">
-        <v>85</v>
+        <v>103</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="B48">
-        <v>85</v>
+        <v>104</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="B49">
-        <v>86</v>
+        <v>104</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="B50">
-        <v>87</v>
+        <v>105</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="B51">
-        <v>88</v>
+        <v>106</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="B52">
-        <v>89</v>
+        <v>107</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="B53">
-        <v>90</v>
+        <v>108</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="B54">
-        <v>91</v>
+        <v>109</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="B55">
-        <v>92</v>
+        <v>110</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="B56">
-        <v>93</v>
+        <v>111</v>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="B57">
-        <v>94</v>
+        <v>112</v>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="B58">
-        <v>95</v>
+        <v>113</v>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="B59">
-        <v>95</v>
+        <v>113</v>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="B60">
-        <v>96</v>
+        <v>114</v>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="B61">
-        <v>97</v>
+        <v>115</v>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="B62">
-        <v>98</v>
+        <v>116</v>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="B63">
-        <v>99</v>
+        <v>117</v>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="B64">
-        <v>100</v>
+        <v>118</v>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="B65">
-        <v>101</v>
+        <v>119</v>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="B66">
-        <v>102</v>
+        <v>120</v>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="B67">
-        <v>103</v>
+        <v>121</v>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="B68">
-        <v>104</v>
+        <v>121</v>
       </c>
     </row>
     <row r="69">
       <c r="A69">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="B69">
-        <v>104</v>
+        <v>122</v>
       </c>
     </row>
     <row r="70">
       <c r="A70">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="B70">
-        <v>105</v>
+        <v>123</v>
       </c>
     </row>
     <row r="71">
       <c r="A71">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="B71">
-        <v>106</v>
+        <v>124</v>
       </c>
     </row>
     <row r="72">
       <c r="A72">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="B72">
-        <v>107</v>
+        <v>125</v>
       </c>
     </row>
     <row r="73">
       <c r="A73">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="B73">
-        <v>108</v>
+        <v>126</v>
       </c>
     </row>
     <row r="74">
       <c r="A74">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="B74">
-        <v>109</v>
+        <v>127</v>
       </c>
     </row>
     <row r="75">
       <c r="A75">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="B75">
-        <v>110</v>
+        <v>128</v>
       </c>
     </row>
     <row r="76">
       <c r="A76">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="B76">
-        <v>111</v>
+        <v>129</v>
       </c>
     </row>
     <row r="77">
       <c r="A77">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="B77">
-        <v>112</v>
+        <v>129</v>
       </c>
     </row>
     <row r="78">
       <c r="A78">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="B78">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="79">
       <c r="A79">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="B79">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="80">
       <c r="A80">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="B80">
-        <v>114</v>
+        <v>130</v>
       </c>
     </row>
     <row r="81">
       <c r="A81">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="B81">
-        <v>115</v>
+        <v>130</v>
       </c>
     </row>
     <row r="82">
       <c r="A82">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="B82">
-        <v>116</v>
+        <v>130</v>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="B83">
-        <v>117</v>
+        <v>130</v>
       </c>
     </row>
     <row r="84">
       <c r="A84">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="B84">
-        <v>118</v>
+        <v>130</v>
       </c>
     </row>
     <row r="85">
       <c r="A85">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="B85">
-        <v>119</v>
+        <v>130</v>
       </c>
     </row>
     <row r="86">
       <c r="A86">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="B86">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="87">
       <c r="A87">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="B87">
-        <v>121</v>
+        <v>130</v>
       </c>
     </row>
     <row r="88">
       <c r="A88">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="B88">
-        <v>121</v>
+        <v>130</v>
       </c>
     </row>
     <row r="89">
       <c r="A89">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="B89">
-        <v>122</v>
+        <v>130</v>
       </c>
     </row>
     <row r="90">
       <c r="A90">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="B90">
-        <v>123</v>
+        <v>130</v>
       </c>
     </row>
     <row r="91">
       <c r="A91">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="B91">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="92">
       <c r="A92">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="B92">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="93">
       <c r="A93">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="B93">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="94">
       <c r="A94">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="B94">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="95">
       <c r="A95">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="B95">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="96">
       <c r="A96">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="B96">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="97">
       <c r="A97">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="B97">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="98">
       <c r="A98">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="B98">
         <v>130</v>
@@ -4611,7 +4131,7 @@
     </row>
     <row r="99">
       <c r="A99">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="B99">
         <v>130</v>
@@ -4619,7 +4139,7 @@
     </row>
     <row r="100">
       <c r="A100">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="B100">
         <v>130</v>
@@ -4627,7 +4147,7 @@
     </row>
     <row r="101">
       <c r="A101">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="B101">
         <v>130</v>
@@ -4635,7 +4155,7 @@
     </row>
     <row r="102">
       <c r="A102">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="B102">
         <v>130</v>
@@ -4643,7 +4163,7 @@
     </row>
     <row r="103">
       <c r="A103">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="B103">
         <v>130</v>
@@ -4651,7 +4171,7 @@
     </row>
     <row r="104">
       <c r="A104">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="B104">
         <v>130</v>
@@ -4659,7 +4179,7 @@
     </row>
     <row r="105">
       <c r="A105">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="B105">
         <v>130</v>
@@ -4667,7 +4187,7 @@
     </row>
     <row r="106">
       <c r="A106">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="B106">
         <v>130</v>
@@ -4675,7 +4195,7 @@
     </row>
     <row r="107">
       <c r="A107">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="B107">
         <v>130</v>
@@ -4683,7 +4203,7 @@
     </row>
     <row r="108">
       <c r="A108">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="B108">
         <v>130</v>
@@ -4691,7 +4211,7 @@
     </row>
     <row r="109">
       <c r="A109">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="B109">
         <v>130</v>
@@ -4699,7 +4219,7 @@
     </row>
     <row r="110">
       <c r="A110">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="B110">
         <v>130</v>
@@ -4707,7 +4227,7 @@
     </row>
     <row r="111">
       <c r="A111">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="B111">
         <v>130</v>
@@ -4715,7 +4235,7 @@
     </row>
     <row r="112">
       <c r="A112">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="B112">
         <v>130</v>
@@ -4723,7 +4243,7 @@
     </row>
     <row r="113">
       <c r="A113">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="B113">
         <v>130</v>
@@ -4731,7 +4251,7 @@
     </row>
     <row r="114">
       <c r="A114">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="B114">
         <v>130</v>
@@ -4739,7 +4259,7 @@
     </row>
     <row r="115">
       <c r="A115">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="B115">
         <v>130</v>
@@ -4747,7 +4267,7 @@
     </row>
     <row r="116">
       <c r="A116">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="B116">
         <v>130</v>
@@ -4755,7 +4275,7 @@
     </row>
     <row r="117">
       <c r="A117">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="B117">
         <v>130</v>
@@ -4763,7 +4283,7 @@
     </row>
     <row r="118">
       <c r="A118">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="B118">
         <v>130</v>
@@ -4771,7 +4291,7 @@
     </row>
     <row r="119">
       <c r="A119">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="B119">
         <v>130</v>
@@ -4779,7 +4299,7 @@
     </row>
     <row r="120">
       <c r="A120">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="B120">
         <v>130</v>
@@ -4787,7 +4307,7 @@
     </row>
     <row r="121">
       <c r="A121">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="B121">
         <v>130</v>
@@ -4795,169 +4315,9 @@
     </row>
     <row r="122">
       <c r="A122">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="B122">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123">
-        <v>101</v>
-      </c>
-      <c r="B123">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124">
-        <v>102</v>
-      </c>
-      <c r="B124">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125">
-        <v>103</v>
-      </c>
-      <c r="B125">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126">
-        <v>104</v>
-      </c>
-      <c r="B126">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127">
-        <v>105</v>
-      </c>
-      <c r="B127">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128">
-        <v>106</v>
-      </c>
-      <c r="B128">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129">
-        <v>107</v>
-      </c>
-      <c r="B129">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130">
-        <v>108</v>
-      </c>
-      <c r="B130">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131">
-        <v>109</v>
-      </c>
-      <c r="B131">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132">
-        <v>110</v>
-      </c>
-      <c r="B132">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133">
-        <v>111</v>
-      </c>
-      <c r="B133">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134">
-        <v>112</v>
-      </c>
-      <c r="B134">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135">
-        <v>113</v>
-      </c>
-      <c r="B135">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136">
-        <v>114</v>
-      </c>
-      <c r="B136">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137">
-        <v>115</v>
-      </c>
-      <c r="B137">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138">
-        <v>116</v>
-      </c>
-      <c r="B138">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139">
-        <v>117</v>
-      </c>
-      <c r="B139">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140">
-        <v>118</v>
-      </c>
-      <c r="B140">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141">
-        <v>119</v>
-      </c>
-      <c r="B141">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142">
-        <v>120</v>
-      </c>
-      <c r="B142">
         <v>130</v>
       </c>
     </row>
@@ -4968,7 +4328,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B142"/>
+  <dimension ref="A1:B122"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4988,1129 +4348,969 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>-19</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>40</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>-18</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>40</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>-17</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>-16</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>40</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>-15</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>40</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>-14</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>41</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>-13</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>41</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>-12</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>42</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>-11</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>43</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>43</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>-9</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>44</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>-8</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>-7</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>45</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>-6</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>46</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>-5</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>47</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>-4</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>47</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>-3</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>48</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>-2</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>49</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>-1</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>49</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>50</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>51</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>51</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>52</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>53</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>53</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>54</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>55</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>55</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>56</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>57</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>57</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>58</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>59</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="B36">
-        <v>59</v>
+        <v>73</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="B37">
-        <v>60</v>
+        <v>73</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="B38">
-        <v>61</v>
+        <v>74</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="B39">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="B40">
-        <v>62</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="B41">
-        <v>63</v>
+        <v>76</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="B42">
-        <v>63</v>
+        <v>76</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="B43">
-        <v>64</v>
+        <v>77</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="B44">
-        <v>65</v>
+        <v>78</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="B45">
-        <v>65</v>
+        <v>78</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="B46">
-        <v>66</v>
+        <v>79</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="B47">
-        <v>67</v>
+        <v>80</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="B48">
-        <v>67</v>
+        <v>80</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="B49">
-        <v>68</v>
+        <v>81</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="B50">
-        <v>69</v>
+        <v>82</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="B51">
-        <v>69</v>
+        <v>82</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="B52">
-        <v>70</v>
+        <v>83</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="B53">
-        <v>71</v>
+        <v>84</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="B54">
-        <v>71</v>
+        <v>84</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="B55">
-        <v>72</v>
+        <v>85</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="B56">
-        <v>73</v>
+        <v>86</v>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="B57">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="B58">
-        <v>74</v>
+        <v>87</v>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="B59">
-        <v>75</v>
+        <v>88</v>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="B60">
-        <v>75</v>
+        <v>89</v>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="B61">
-        <v>76</v>
+        <v>89</v>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="B62">
-        <v>76</v>
+        <v>90</v>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="B63">
-        <v>77</v>
+        <v>91</v>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="B64">
-        <v>78</v>
+        <v>91</v>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="B65">
-        <v>78</v>
+        <v>92</v>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="B66">
-        <v>79</v>
+        <v>93</v>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="B67">
-        <v>80</v>
+        <v>93</v>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="B68">
-        <v>80</v>
+        <v>94</v>
       </c>
     </row>
     <row r="69">
       <c r="A69">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="B69">
-        <v>81</v>
+        <v>95</v>
       </c>
     </row>
     <row r="70">
       <c r="A70">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="B70">
-        <v>82</v>
+        <v>96</v>
       </c>
     </row>
     <row r="71">
       <c r="A71">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="B71">
-        <v>82</v>
+        <v>96</v>
       </c>
     </row>
     <row r="72">
       <c r="A72">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="B72">
-        <v>83</v>
+        <v>97</v>
       </c>
     </row>
     <row r="73">
       <c r="A73">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="B73">
-        <v>84</v>
+        <v>98</v>
       </c>
     </row>
     <row r="74">
       <c r="A74">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="B74">
-        <v>84</v>
+        <v>98</v>
       </c>
     </row>
     <row r="75">
       <c r="A75">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="B75">
-        <v>85</v>
+        <v>99</v>
       </c>
     </row>
     <row r="76">
       <c r="A76">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="B76">
-        <v>86</v>
+        <v>100</v>
       </c>
     </row>
     <row r="77">
       <c r="A77">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="B77">
-        <v>87</v>
+        <v>101</v>
       </c>
     </row>
     <row r="78">
       <c r="A78">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="B78">
-        <v>87</v>
+        <v>101</v>
       </c>
     </row>
     <row r="79">
       <c r="A79">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="B79">
-        <v>88</v>
+        <v>102</v>
       </c>
     </row>
     <row r="80">
       <c r="A80">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="B80">
-        <v>89</v>
+        <v>103</v>
       </c>
     </row>
     <row r="81">
       <c r="A81">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="B81">
-        <v>89</v>
+        <v>104</v>
       </c>
     </row>
     <row r="82">
       <c r="A82">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="B82">
-        <v>90</v>
+        <v>104</v>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="B83">
-        <v>91</v>
+        <v>105</v>
       </c>
     </row>
     <row r="84">
       <c r="A84">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="B84">
-        <v>91</v>
+        <v>106</v>
       </c>
     </row>
     <row r="85">
       <c r="A85">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="B85">
-        <v>92</v>
+        <v>107</v>
       </c>
     </row>
     <row r="86">
       <c r="A86">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="B86">
-        <v>93</v>
+        <v>107</v>
       </c>
     </row>
     <row r="87">
       <c r="A87">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="B87">
-        <v>93</v>
+        <v>108</v>
       </c>
     </row>
     <row r="88">
       <c r="A88">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="B88">
-        <v>94</v>
+        <v>109</v>
       </c>
     </row>
     <row r="89">
       <c r="A89">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="B89">
-        <v>95</v>
+        <v>110</v>
       </c>
     </row>
     <row r="90">
       <c r="A90">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="B90">
-        <v>96</v>
+        <v>111</v>
       </c>
     </row>
     <row r="91">
       <c r="A91">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="B91">
-        <v>96</v>
+        <v>111</v>
       </c>
     </row>
     <row r="92">
       <c r="A92">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="B92">
-        <v>97</v>
+        <v>112</v>
       </c>
     </row>
     <row r="93">
       <c r="A93">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="B93">
-        <v>98</v>
+        <v>113</v>
       </c>
     </row>
     <row r="94">
       <c r="A94">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="B94">
-        <v>98</v>
+        <v>114</v>
       </c>
     </row>
     <row r="95">
       <c r="A95">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="B95">
-        <v>99</v>
+        <v>115</v>
       </c>
     </row>
     <row r="96">
       <c r="A96">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="B96">
-        <v>100</v>
+        <v>116</v>
       </c>
     </row>
     <row r="97">
       <c r="A97">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="B97">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="98">
       <c r="A98">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="B98">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="99">
       <c r="A99">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="B99">
-        <v>102</v>
+        <v>118</v>
       </c>
     </row>
     <row r="100">
       <c r="A100">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="B100">
-        <v>103</v>
+        <v>119</v>
       </c>
     </row>
     <row r="101">
       <c r="A101">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="B101">
-        <v>104</v>
+        <v>120</v>
       </c>
     </row>
     <row r="102">
       <c r="A102">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="B102">
-        <v>104</v>
+        <v>121</v>
       </c>
     </row>
     <row r="103">
       <c r="A103">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="B103">
-        <v>105</v>
+        <v>122</v>
       </c>
     </row>
     <row r="104">
       <c r="A104">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="B104">
-        <v>106</v>
+        <v>123</v>
       </c>
     </row>
     <row r="105">
       <c r="A105">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="B105">
-        <v>107</v>
+        <v>124</v>
       </c>
     </row>
     <row r="106">
       <c r="A106">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="B106">
-        <v>107</v>
+        <v>125</v>
       </c>
     </row>
     <row r="107">
       <c r="A107">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="B107">
-        <v>108</v>
+        <v>126</v>
       </c>
     </row>
     <row r="108">
       <c r="A108">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="B108">
-        <v>109</v>
+        <v>127</v>
       </c>
     </row>
     <row r="109">
       <c r="A109">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="B109">
-        <v>110</v>
+        <v>129</v>
       </c>
     </row>
     <row r="110">
       <c r="A110">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="B110">
-        <v>111</v>
+        <v>130</v>
       </c>
     </row>
     <row r="111">
       <c r="A111">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="B111">
-        <v>111</v>
+        <v>130</v>
       </c>
     </row>
     <row r="112">
       <c r="A112">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="B112">
-        <v>112</v>
+        <v>130</v>
       </c>
     </row>
     <row r="113">
       <c r="A113">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="B113">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="114">
       <c r="A114">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="B114">
-        <v>114</v>
+        <v>130</v>
       </c>
     </row>
     <row r="115">
       <c r="A115">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="B115">
-        <v>115</v>
+        <v>130</v>
       </c>
     </row>
     <row r="116">
       <c r="A116">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="B116">
-        <v>116</v>
+        <v>130</v>
       </c>
     </row>
     <row r="117">
       <c r="A117">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="B117">
-        <v>117</v>
+        <v>130</v>
       </c>
     </row>
     <row r="118">
       <c r="A118">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="B118">
-        <v>117</v>
+        <v>130</v>
       </c>
     </row>
     <row r="119">
       <c r="A119">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="B119">
-        <v>118</v>
+        <v>130</v>
       </c>
     </row>
     <row r="120">
       <c r="A120">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="B120">
-        <v>119</v>
+        <v>130</v>
       </c>
     </row>
     <row r="121">
       <c r="A121">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="B121">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="122">
       <c r="A122">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="B122">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123">
-        <v>101</v>
-      </c>
-      <c r="B123">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124">
-        <v>102</v>
-      </c>
-      <c r="B124">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125">
-        <v>103</v>
-      </c>
-      <c r="B125">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126">
-        <v>104</v>
-      </c>
-      <c r="B126">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127">
-        <v>105</v>
-      </c>
-      <c r="B127">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128">
-        <v>106</v>
-      </c>
-      <c r="B128">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129">
-        <v>107</v>
-      </c>
-      <c r="B129">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130">
-        <v>108</v>
-      </c>
-      <c r="B130">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131">
-        <v>109</v>
-      </c>
-      <c r="B131">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132">
-        <v>110</v>
-      </c>
-      <c r="B132">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133">
-        <v>111</v>
-      </c>
-      <c r="B133">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134">
-        <v>112</v>
-      </c>
-      <c r="B134">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135">
-        <v>113</v>
-      </c>
-      <c r="B135">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136">
-        <v>114</v>
-      </c>
-      <c r="B136">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137">
-        <v>115</v>
-      </c>
-      <c r="B137">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138">
-        <v>116</v>
-      </c>
-      <c r="B138">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139">
-        <v>117</v>
-      </c>
-      <c r="B139">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140">
-        <v>118</v>
-      </c>
-      <c r="B140">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141">
-        <v>119</v>
-      </c>
-      <c r="B141">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142">
-        <v>120</v>
-      </c>
-      <c r="B142">
         <v>130</v>
       </c>
     </row>
@@ -6121,7 +5321,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B142"/>
+  <dimension ref="A1:B122"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6141,1129 +5341,969 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>-19</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>-18</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>-17</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>-16</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>-15</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>-14</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>-13</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>40</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>-12</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>-11</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>40</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>-9</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>41</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>-8</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>42</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>-7</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>42</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>-6</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>43</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>-5</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>44</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>-4</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>44</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>-3</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>45</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>-2</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>-1</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>46</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>47</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>47</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>48</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>49</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>49</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>50</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>50</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>51</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>52</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>52</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>53</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>54</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>54</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>55</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="B36">
-        <v>55</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="B37">
-        <v>56</v>
+        <v>68</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="B38">
-        <v>57</v>
+        <v>69</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="B39">
-        <v>57</v>
+        <v>69</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="B40">
-        <v>58</v>
+        <v>70</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="B41">
-        <v>58</v>
+        <v>71</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="B42">
-        <v>59</v>
+        <v>71</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="B43">
-        <v>60</v>
+        <v>72</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="B44">
-        <v>60</v>
+        <v>73</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="B45">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="B46">
-        <v>61</v>
+        <v>74</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="B47">
-        <v>62</v>
+        <v>74</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="B48">
-        <v>63</v>
+        <v>75</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="B49">
-        <v>63</v>
+        <v>76</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="B50">
-        <v>64</v>
+        <v>76</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="B51">
-        <v>65</v>
+        <v>77</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="B52">
-        <v>65</v>
+        <v>78</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="B53">
-        <v>66</v>
+        <v>78</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="B54">
-        <v>66</v>
+        <v>79</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="B55">
-        <v>67</v>
+        <v>79</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="B56">
-        <v>68</v>
+        <v>80</v>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="B57">
-        <v>68</v>
+        <v>81</v>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="B58">
-        <v>69</v>
+        <v>81</v>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="B59">
-        <v>69</v>
+        <v>82</v>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="B60">
-        <v>70</v>
+        <v>83</v>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="B61">
-        <v>71</v>
+        <v>83</v>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="B62">
-        <v>71</v>
+        <v>84</v>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="B63">
-        <v>72</v>
+        <v>85</v>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="B64">
-        <v>73</v>
+        <v>85</v>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="B65">
-        <v>73</v>
+        <v>86</v>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="B66">
-        <v>74</v>
+        <v>87</v>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="B67">
-        <v>74</v>
+        <v>87</v>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="B68">
-        <v>75</v>
+        <v>88</v>
       </c>
     </row>
     <row r="69">
       <c r="A69">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="B69">
-        <v>76</v>
+        <v>89</v>
       </c>
     </row>
     <row r="70">
       <c r="A70">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="B70">
-        <v>76</v>
+        <v>89</v>
       </c>
     </row>
     <row r="71">
       <c r="A71">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="B71">
-        <v>77</v>
+        <v>90</v>
       </c>
     </row>
     <row r="72">
       <c r="A72">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="B72">
-        <v>78</v>
+        <v>91</v>
       </c>
     </row>
     <row r="73">
       <c r="A73">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="B73">
-        <v>78</v>
+        <v>91</v>
       </c>
     </row>
     <row r="74">
       <c r="A74">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="B74">
-        <v>79</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75">
       <c r="A75">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="B75">
-        <v>79</v>
+        <v>93</v>
       </c>
     </row>
     <row r="76">
       <c r="A76">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="B76">
-        <v>80</v>
+        <v>93</v>
       </c>
     </row>
     <row r="77">
       <c r="A77">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="B77">
-        <v>81</v>
+        <v>94</v>
       </c>
     </row>
     <row r="78">
       <c r="A78">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="B78">
-        <v>81</v>
+        <v>95</v>
       </c>
     </row>
     <row r="79">
       <c r="A79">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="B79">
-        <v>82</v>
+        <v>96</v>
       </c>
     </row>
     <row r="80">
       <c r="A80">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="B80">
-        <v>83</v>
+        <v>96</v>
       </c>
     </row>
     <row r="81">
       <c r="A81">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="B81">
-        <v>83</v>
+        <v>97</v>
       </c>
     </row>
     <row r="82">
       <c r="A82">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="B82">
-        <v>84</v>
+        <v>98</v>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="B83">
-        <v>85</v>
+        <v>99</v>
       </c>
     </row>
     <row r="84">
       <c r="A84">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="B84">
-        <v>85</v>
+        <v>99</v>
       </c>
     </row>
     <row r="85">
       <c r="A85">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="B85">
-        <v>86</v>
+        <v>100</v>
       </c>
     </row>
     <row r="86">
       <c r="A86">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="B86">
-        <v>87</v>
+        <v>101</v>
       </c>
     </row>
     <row r="87">
       <c r="A87">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="B87">
-        <v>87</v>
+        <v>102</v>
       </c>
     </row>
     <row r="88">
       <c r="A88">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="B88">
-        <v>88</v>
+        <v>102</v>
       </c>
     </row>
     <row r="89">
       <c r="A89">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="B89">
-        <v>89</v>
+        <v>103</v>
       </c>
     </row>
     <row r="90">
       <c r="A90">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="B90">
-        <v>89</v>
+        <v>104</v>
       </c>
     </row>
     <row r="91">
       <c r="A91">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="B91">
-        <v>90</v>
+        <v>105</v>
       </c>
     </row>
     <row r="92">
       <c r="A92">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="B92">
-        <v>91</v>
+        <v>106</v>
       </c>
     </row>
     <row r="93">
       <c r="A93">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="B93">
-        <v>91</v>
+        <v>107</v>
       </c>
     </row>
     <row r="94">
       <c r="A94">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="B94">
-        <v>92</v>
+        <v>107</v>
       </c>
     </row>
     <row r="95">
       <c r="A95">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="B95">
-        <v>93</v>
+        <v>108</v>
       </c>
     </row>
     <row r="96">
       <c r="A96">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="B96">
-        <v>93</v>
+        <v>109</v>
       </c>
     </row>
     <row r="97">
       <c r="A97">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="B97">
-        <v>94</v>
+        <v>110</v>
       </c>
     </row>
     <row r="98">
       <c r="A98">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="B98">
-        <v>95</v>
+        <v>111</v>
       </c>
     </row>
     <row r="99">
       <c r="A99">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="B99">
-        <v>96</v>
+        <v>112</v>
       </c>
     </row>
     <row r="100">
       <c r="A100">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="B100">
-        <v>96</v>
+        <v>113</v>
       </c>
     </row>
     <row r="101">
       <c r="A101">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="B101">
-        <v>97</v>
+        <v>114</v>
       </c>
     </row>
     <row r="102">
       <c r="A102">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="B102">
-        <v>98</v>
+        <v>115</v>
       </c>
     </row>
     <row r="103">
       <c r="A103">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="B103">
-        <v>99</v>
+        <v>116</v>
       </c>
     </row>
     <row r="104">
       <c r="A104">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="B104">
-        <v>99</v>
+        <v>118</v>
       </c>
     </row>
     <row r="105">
       <c r="A105">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="B105">
-        <v>100</v>
+        <v>119</v>
       </c>
     </row>
     <row r="106">
       <c r="A106">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="B106">
-        <v>101</v>
+        <v>120</v>
       </c>
     </row>
     <row r="107">
       <c r="A107">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="B107">
-        <v>102</v>
+        <v>121</v>
       </c>
     </row>
     <row r="108">
       <c r="A108">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="B108">
-        <v>102</v>
+        <v>123</v>
       </c>
     </row>
     <row r="109">
       <c r="A109">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="B109">
-        <v>103</v>
+        <v>124</v>
       </c>
     </row>
     <row r="110">
       <c r="A110">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="B110">
-        <v>104</v>
+        <v>126</v>
       </c>
     </row>
     <row r="111">
       <c r="A111">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="B111">
-        <v>105</v>
+        <v>128</v>
       </c>
     </row>
     <row r="112">
       <c r="A112">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="B112">
-        <v>106</v>
+        <v>130</v>
       </c>
     </row>
     <row r="113">
       <c r="A113">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="B113">
-        <v>107</v>
+        <v>130</v>
       </c>
     </row>
     <row r="114">
       <c r="A114">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="B114">
-        <v>107</v>
+        <v>130</v>
       </c>
     </row>
     <row r="115">
       <c r="A115">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="B115">
-        <v>108</v>
+        <v>130</v>
       </c>
     </row>
     <row r="116">
       <c r="A116">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="B116">
-        <v>109</v>
+        <v>130</v>
       </c>
     </row>
     <row r="117">
       <c r="A117">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="B117">
-        <v>110</v>
+        <v>130</v>
       </c>
     </row>
     <row r="118">
       <c r="A118">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="B118">
-        <v>111</v>
+        <v>130</v>
       </c>
     </row>
     <row r="119">
       <c r="A119">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="B119">
-        <v>112</v>
+        <v>130</v>
       </c>
     </row>
     <row r="120">
       <c r="A120">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="B120">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="121">
       <c r="A121">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="B121">
-        <v>114</v>
+        <v>130</v>
       </c>
     </row>
     <row r="122">
       <c r="A122">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="B122">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123">
-        <v>101</v>
-      </c>
-      <c r="B123">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124">
-        <v>102</v>
-      </c>
-      <c r="B124">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125">
-        <v>103</v>
-      </c>
-      <c r="B125">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126">
-        <v>104</v>
-      </c>
-      <c r="B126">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127">
-        <v>105</v>
-      </c>
-      <c r="B127">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128">
-        <v>106</v>
-      </c>
-      <c r="B128">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129">
-        <v>107</v>
-      </c>
-      <c r="B129">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130">
-        <v>108</v>
-      </c>
-      <c r="B130">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131">
-        <v>109</v>
-      </c>
-      <c r="B131">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132">
-        <v>110</v>
-      </c>
-      <c r="B132">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133">
-        <v>111</v>
-      </c>
-      <c r="B133">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134">
-        <v>112</v>
-      </c>
-      <c r="B134">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135">
-        <v>113</v>
-      </c>
-      <c r="B135">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136">
-        <v>114</v>
-      </c>
-      <c r="B136">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137">
-        <v>115</v>
-      </c>
-      <c r="B137">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138">
-        <v>116</v>
-      </c>
-      <c r="B138">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139">
-        <v>117</v>
-      </c>
-      <c r="B139">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140">
-        <v>118</v>
-      </c>
-      <c r="B140">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141">
-        <v>119</v>
-      </c>
-      <c r="B141">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142">
-        <v>120</v>
-      </c>
-      <c r="B142">
         <v>130</v>
       </c>
     </row>

--- a/OUTPUT-FILES/NORMS/TODE_8.27.21_fornorms/rlne_sum-raw-ss-lookup-tabbed-grade.xlsx
+++ b/OUTPUT-FILES/NORMS/TODE_8.27.21_fornorms/rlne_sum-raw-ss-lookup-tabbed-grade.xlsx
@@ -379,7 +379,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3">
@@ -387,7 +387,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4">
@@ -395,7 +395,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5">
@@ -403,7 +403,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6">
@@ -411,7 +411,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7">
@@ -419,7 +419,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8">
@@ -427,7 +427,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9">
@@ -435,7 +435,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10">
@@ -443,7 +443,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11">
@@ -451,7 +451,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12">
@@ -459,7 +459,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13">
@@ -467,7 +467,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14">
@@ -475,7 +475,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15">
@@ -483,7 +483,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16">
@@ -491,7 +491,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17">
@@ -499,7 +499,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18">
@@ -507,7 +507,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19">
@@ -515,7 +515,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20">
@@ -523,7 +523,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21">
@@ -531,7 +531,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22">
@@ -539,7 +539,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23">
@@ -547,7 +547,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24">
@@ -555,7 +555,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25">
@@ -563,7 +563,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26">
@@ -571,7 +571,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27">
@@ -579,7 +579,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28">
@@ -587,7 +587,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29">
@@ -595,7 +595,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30">
@@ -603,7 +603,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31">
@@ -611,7 +611,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32">
@@ -619,7 +619,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33">
@@ -627,7 +627,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="34">
@@ -675,7 +675,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="40">
@@ -683,7 +683,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="41">
@@ -739,7 +739,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="48">
@@ -747,7 +747,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="49">
@@ -787,7 +787,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="54">
@@ -795,7 +795,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="55">
@@ -803,7 +803,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="56">
@@ -811,7 +811,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="57">
@@ -819,7 +819,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="58">
@@ -827,7 +827,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="59">
@@ -835,7 +835,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="60">
@@ -843,7 +843,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="61">
@@ -851,7 +851,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="62">
@@ -859,7 +859,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="63">
@@ -867,7 +867,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="64">
@@ -875,7 +875,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="65">
@@ -883,7 +883,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="66">
@@ -891,7 +891,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="67">
@@ -899,7 +899,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="68">
@@ -907,7 +907,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="69">
@@ -915,7 +915,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="70">
@@ -923,7 +923,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="71">
@@ -931,7 +931,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="72">
@@ -939,7 +939,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="73">
@@ -947,7 +947,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="74">
@@ -955,7 +955,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="75">
@@ -963,7 +963,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="76">
@@ -971,7 +971,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="77">
@@ -979,7 +979,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="78">
@@ -987,7 +987,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="79">
@@ -995,7 +995,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="80">
@@ -1372,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3">
@@ -1380,7 +1380,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4">
@@ -1388,7 +1388,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5">
@@ -1396,7 +1396,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6">
@@ -1404,7 +1404,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7">
@@ -1412,7 +1412,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8">
@@ -1420,7 +1420,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9">
@@ -1428,7 +1428,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10">
@@ -1436,7 +1436,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11">
@@ -1444,7 +1444,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12">
@@ -1452,7 +1452,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13">
@@ -1460,7 +1460,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14">
@@ -1468,7 +1468,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15">
@@ -1476,7 +1476,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16">
@@ -1484,7 +1484,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17">
@@ -1492,7 +1492,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18">
@@ -1508,7 +1508,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20">
@@ -1516,7 +1516,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21">
@@ -1524,7 +1524,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22">
@@ -1548,7 +1548,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25">
@@ -1556,7 +1556,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26">
@@ -1564,7 +1564,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27">
@@ -1588,7 +1588,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30">
@@ -1596,7 +1596,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31">
@@ -1628,7 +1628,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35">
@@ -1636,7 +1636,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="36">
@@ -1668,7 +1668,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="40">
@@ -1708,7 +1708,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="45">
@@ -1748,7 +1748,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="50">
@@ -1780,7 +1780,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="54">
@@ -1820,7 +1820,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="59">
@@ -1860,7 +1860,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="64">
@@ -1892,7 +1892,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="68">
@@ -1900,7 +1900,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="69">
@@ -1932,7 +1932,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="73">
@@ -1940,7 +1940,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="74">
@@ -1964,7 +1964,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="77">
@@ -1972,7 +1972,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="78">
@@ -1980,7 +1980,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="79">
@@ -2004,7 +2004,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="82">
@@ -2012,7 +2012,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="83">
@@ -2020,7 +2020,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="84">
@@ -2036,7 +2036,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="86">
@@ -2044,7 +2044,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="87">
@@ -2052,7 +2052,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="88">
@@ -2060,7 +2060,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="89">
@@ -2076,7 +2076,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="91">
@@ -2084,7 +2084,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="92">
@@ -2461,7 +2461,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15">
@@ -2493,7 +2493,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19">
@@ -2525,7 +2525,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23">
@@ -2549,7 +2549,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26">
@@ -2557,7 +2557,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27">
@@ -2581,7 +2581,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30">
@@ -2589,7 +2589,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31">
@@ -2613,7 +2613,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34">
@@ -2621,7 +2621,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35">
@@ -2645,7 +2645,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38">
@@ -2653,7 +2653,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="39">
@@ -2677,7 +2677,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="42">
@@ -2685,7 +2685,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="43">
@@ -2709,7 +2709,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="46">
@@ -2741,7 +2741,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="50">
@@ -2773,7 +2773,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="54">
@@ -2805,7 +2805,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="58">
@@ -2957,7 +2957,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="77">
@@ -2965,7 +2965,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="78">
@@ -2989,7 +2989,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="81">
@@ -2997,7 +2997,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="82">
@@ -3021,7 +3021,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="85">
@@ -3029,7 +3029,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="86">
@@ -3037,7 +3037,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="87">
@@ -3053,7 +3053,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="89">
@@ -3061,7 +3061,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="90">
@@ -3069,7 +3069,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="91">
@@ -3077,7 +3077,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="92">
@@ -3085,7 +3085,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="93">
@@ -3093,7 +3093,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="94">
@@ -3101,7 +3101,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="95">
@@ -3109,7 +3109,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="96">
@@ -3117,7 +3117,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="97">
@@ -3125,7 +3125,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="98">
@@ -3133,7 +3133,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="99">
@@ -3141,7 +3141,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="100">
@@ -3149,7 +3149,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="101">
@@ -3157,7 +3157,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="102">
@@ -3358,7 +3358,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>62</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
@@ -3366,7 +3366,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4">
@@ -3374,7 +3374,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5">
@@ -3382,7 +3382,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6">
@@ -3390,7 +3390,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7">
@@ -3398,7 +3398,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8">
@@ -3406,7 +3406,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>67</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9">
@@ -3414,7 +3414,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>68</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10">
@@ -3422,7 +3422,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>69</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11">
@@ -3430,7 +3430,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>70</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12">
@@ -3438,7 +3438,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>71</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13">
@@ -3446,7 +3446,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>72</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14">
@@ -3454,7 +3454,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>73</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15">
@@ -3462,7 +3462,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>74</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16">
@@ -3470,7 +3470,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>75</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17">
@@ -3478,7 +3478,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>75</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18">
@@ -3486,7 +3486,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>76</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19">
@@ -3494,7 +3494,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>77</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20">
@@ -3502,7 +3502,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>78</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21">
@@ -3510,7 +3510,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22">
@@ -3518,7 +3518,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>80</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23">
@@ -3526,7 +3526,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>81</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24">
@@ -3534,7 +3534,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>82</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25">
@@ -3542,7 +3542,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>83</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26">
@@ -3550,7 +3550,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>84</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27">
@@ -3558,7 +3558,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>85</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28">
@@ -3566,7 +3566,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>85</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29">
@@ -3574,7 +3574,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>86</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30">
@@ -3582,7 +3582,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>87</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31">
@@ -3590,7 +3590,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>88</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32">
@@ -3598,7 +3598,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>89</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33">
@@ -3606,7 +3606,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>90</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34">
@@ -3614,7 +3614,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>91</v>
+        <v>74</v>
       </c>
     </row>
     <row r="35">
@@ -3622,7 +3622,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>92</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36">
@@ -3630,7 +3630,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>93</v>
+        <v>76</v>
       </c>
     </row>
     <row r="37">
@@ -3638,7 +3638,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>94</v>
+        <v>76</v>
       </c>
     </row>
     <row r="38">
@@ -3646,7 +3646,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>95</v>
+        <v>77</v>
       </c>
     </row>
     <row r="39">
@@ -3654,7 +3654,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>95</v>
+        <v>78</v>
       </c>
     </row>
     <row r="40">
@@ -3662,7 +3662,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>96</v>
+        <v>78</v>
       </c>
     </row>
     <row r="41">
@@ -3670,7 +3670,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>97</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42">
@@ -3678,7 +3678,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>98</v>
+        <v>80</v>
       </c>
     </row>
     <row r="43">
@@ -3686,7 +3686,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>99</v>
+        <v>81</v>
       </c>
     </row>
     <row r="44">
@@ -3694,7 +3694,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>100</v>
+        <v>81</v>
       </c>
     </row>
     <row r="45">
@@ -3702,7 +3702,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>101</v>
+        <v>82</v>
       </c>
     </row>
     <row r="46">
@@ -3710,7 +3710,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>102</v>
+        <v>83</v>
       </c>
     </row>
     <row r="47">
@@ -3718,7 +3718,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>103</v>
+        <v>83</v>
       </c>
     </row>
     <row r="48">
@@ -3726,7 +3726,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>104</v>
+        <v>84</v>
       </c>
     </row>
     <row r="49">
@@ -3734,7 +3734,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>104</v>
+        <v>85</v>
       </c>
     </row>
     <row r="50">
@@ -3742,7 +3742,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>105</v>
+        <v>86</v>
       </c>
     </row>
     <row r="51">
@@ -3750,7 +3750,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>106</v>
+        <v>86</v>
       </c>
     </row>
     <row r="52">
@@ -3758,7 +3758,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>107</v>
+        <v>87</v>
       </c>
     </row>
     <row r="53">
@@ -3766,7 +3766,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>108</v>
+        <v>88</v>
       </c>
     </row>
     <row r="54">
@@ -3774,7 +3774,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>109</v>
+        <v>88</v>
       </c>
     </row>
     <row r="55">
@@ -3782,7 +3782,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>110</v>
+        <v>89</v>
       </c>
     </row>
     <row r="56">
@@ -3790,7 +3790,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>111</v>
+        <v>90</v>
       </c>
     </row>
     <row r="57">
@@ -3798,7 +3798,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>112</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58">
@@ -3806,7 +3806,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>113</v>
+        <v>91</v>
       </c>
     </row>
     <row r="59">
@@ -3814,7 +3814,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>113</v>
+        <v>92</v>
       </c>
     </row>
     <row r="60">
@@ -3822,7 +3822,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>114</v>
+        <v>93</v>
       </c>
     </row>
     <row r="61">
@@ -3830,7 +3830,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>115</v>
+        <v>94</v>
       </c>
     </row>
     <row r="62">
@@ -3838,7 +3838,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>116</v>
+        <v>94</v>
       </c>
     </row>
     <row r="63">
@@ -3846,7 +3846,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>117</v>
+        <v>95</v>
       </c>
     </row>
     <row r="64">
@@ -3854,7 +3854,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>118</v>
+        <v>96</v>
       </c>
     </row>
     <row r="65">
@@ -3862,7 +3862,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>119</v>
+        <v>96</v>
       </c>
     </row>
     <row r="66">
@@ -3870,7 +3870,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>120</v>
+        <v>97</v>
       </c>
     </row>
     <row r="67">
@@ -3878,7 +3878,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>121</v>
+        <v>98</v>
       </c>
     </row>
     <row r="68">
@@ -3886,7 +3886,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>121</v>
+        <v>99</v>
       </c>
     </row>
     <row r="69">
@@ -3894,7 +3894,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>122</v>
+        <v>99</v>
       </c>
     </row>
     <row r="70">
@@ -3902,7 +3902,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>123</v>
+        <v>100</v>
       </c>
     </row>
     <row r="71">
@@ -3910,7 +3910,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>124</v>
+        <v>101</v>
       </c>
     </row>
     <row r="72">
@@ -3918,7 +3918,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>125</v>
+        <v>102</v>
       </c>
     </row>
     <row r="73">
@@ -3926,7 +3926,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>126</v>
+        <v>102</v>
       </c>
     </row>
     <row r="74">
@@ -3934,7 +3934,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>127</v>
+        <v>103</v>
       </c>
     </row>
     <row r="75">
@@ -3942,7 +3942,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>128</v>
+        <v>104</v>
       </c>
     </row>
     <row r="76">
@@ -3950,7 +3950,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>129</v>
+        <v>105</v>
       </c>
     </row>
     <row r="77">
@@ -3958,7 +3958,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>129</v>
+        <v>106</v>
       </c>
     </row>
     <row r="78">
@@ -3966,7 +3966,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>130</v>
+        <v>106</v>
       </c>
     </row>
     <row r="79">
@@ -3974,7 +3974,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>130</v>
+        <v>107</v>
       </c>
     </row>
     <row r="80">
@@ -3982,7 +3982,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>130</v>
+        <v>108</v>
       </c>
     </row>
     <row r="81">
@@ -3990,7 +3990,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>130</v>
+        <v>109</v>
       </c>
     </row>
     <row r="82">
@@ -3998,7 +3998,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>130</v>
+        <v>109</v>
       </c>
     </row>
     <row r="83">
@@ -4006,7 +4006,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>130</v>
+        <v>110</v>
       </c>
     </row>
     <row r="84">
@@ -4014,7 +4014,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>130</v>
+        <v>111</v>
       </c>
     </row>
     <row r="85">
@@ -4022,7 +4022,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>130</v>
+        <v>112</v>
       </c>
     </row>
     <row r="86">
@@ -4030,7 +4030,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>130</v>
+        <v>113</v>
       </c>
     </row>
     <row r="87">
@@ -4038,7 +4038,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>130</v>
+        <v>113</v>
       </c>
     </row>
     <row r="88">
@@ -4046,7 +4046,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>130</v>
+        <v>114</v>
       </c>
     </row>
     <row r="89">
@@ -4054,7 +4054,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>130</v>
+        <v>115</v>
       </c>
     </row>
     <row r="90">
@@ -4062,7 +4062,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>130</v>
+        <v>116</v>
       </c>
     </row>
     <row r="91">
@@ -4070,7 +4070,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>130</v>
+        <v>116</v>
       </c>
     </row>
     <row r="92">
@@ -4078,7 +4078,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>130</v>
+        <v>117</v>
       </c>
     </row>
     <row r="93">
@@ -4086,7 +4086,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
     <row r="94">
@@ -4094,7 +4094,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="95">
@@ -4102,7 +4102,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="96">
@@ -4110,7 +4110,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="97">
@@ -4118,7 +4118,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="98">
@@ -4126,7 +4126,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="99">
@@ -4134,7 +4134,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="100">
@@ -4142,7 +4142,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="101">
@@ -4150,7 +4150,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="102">
@@ -4158,7 +4158,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="103">
@@ -4166,7 +4166,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="104">
@@ -4174,7 +4174,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="105">
@@ -4182,7 +4182,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="106">
@@ -4190,7 +4190,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="107">
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3">
@@ -4359,7 +4359,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
@@ -4367,7 +4367,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5">
@@ -4375,7 +4375,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6">
@@ -4383,7 +4383,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7">
@@ -4391,7 +4391,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8">
@@ -4399,7 +4399,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9">
@@ -4407,7 +4407,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10">
@@ -4415,7 +4415,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11">
@@ -4423,7 +4423,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12">
@@ -4431,7 +4431,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13">
@@ -4439,7 +4439,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14">
@@ -4447,7 +4447,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15">
@@ -4455,7 +4455,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16">
@@ -4463,7 +4463,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17">
@@ -4471,7 +4471,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18">
@@ -4479,7 +4479,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19">
@@ -4487,7 +4487,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20">
@@ -4495,7 +4495,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21">
@@ -4503,7 +4503,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22">
@@ -4511,7 +4511,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23">
@@ -4519,7 +4519,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24">
@@ -4527,7 +4527,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25">
@@ -4535,7 +4535,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26">
@@ -4543,7 +4543,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27">
@@ -4551,7 +4551,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28">
@@ -4559,7 +4559,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29">
@@ -4567,7 +4567,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30">
@@ -4575,7 +4575,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31">
@@ -4583,7 +4583,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32">
@@ -4591,7 +4591,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33">
@@ -4599,7 +4599,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34">
@@ -4607,7 +4607,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35">
@@ -4615,7 +4615,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36">
@@ -4623,7 +4623,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37">
@@ -4631,7 +4631,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38">
@@ -4639,7 +4639,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39">
@@ -4647,7 +4647,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="40">
@@ -4655,7 +4655,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="41">
@@ -4663,7 +4663,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="42">
@@ -4671,7 +4671,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="43">
@@ -4679,7 +4679,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="44">
@@ -4687,7 +4687,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="45">
@@ -4695,7 +4695,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="46">
@@ -4703,7 +4703,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="47">
@@ -4711,7 +4711,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="48">
@@ -4719,7 +4719,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="49">
@@ -4727,7 +4727,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="50">
@@ -4735,7 +4735,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="51">
@@ -4743,7 +4743,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="52">
@@ -4751,7 +4751,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="53">
@@ -4759,7 +4759,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="54">
@@ -4767,7 +4767,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="55">
@@ -4775,7 +4775,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="56">
@@ -4783,7 +4783,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="57">
@@ -4791,7 +4791,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="58">
@@ -4799,7 +4799,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="59">
@@ -4807,7 +4807,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="60">
@@ -4815,7 +4815,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="61">
@@ -4823,7 +4823,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="62">
@@ -4831,7 +4831,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="63">
@@ -4839,7 +4839,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="64">
@@ -4855,7 +4855,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="66">
@@ -4863,7 +4863,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="67">
@@ -4879,7 +4879,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="69">
@@ -4887,7 +4887,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="70">
@@ -4895,7 +4895,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="71">
@@ -4911,7 +4911,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="73">
@@ -4919,7 +4919,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="74">
@@ -4943,7 +4943,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="77">
@@ -4951,7 +4951,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="78">
@@ -4975,7 +4975,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="81">
@@ -4983,7 +4983,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="82">
@@ -5015,7 +5015,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="86">
@@ -5055,7 +5055,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="91">
@@ -5095,7 +5095,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="96">
@@ -5103,7 +5103,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="97">
@@ -5111,7 +5111,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="98">
@@ -5159,7 +5159,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="104">
@@ -5167,7 +5167,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="105">
@@ -5175,7 +5175,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="106">
@@ -5183,7 +5183,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="107">
@@ -5191,7 +5191,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="108">
@@ -5199,7 +5199,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="109">
@@ -5207,7 +5207,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="110">
@@ -5215,7 +5215,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="111">
@@ -5223,7 +5223,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="112">
@@ -5344,7 +5344,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3">
@@ -5360,7 +5360,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5">
@@ -5368,7 +5368,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6">
@@ -5384,7 +5384,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8">
@@ -5400,7 +5400,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10">
@@ -5408,7 +5408,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11">
@@ -5424,7 +5424,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13">
@@ -5432,7 +5432,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14">
@@ -5440,7 +5440,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15">
@@ -5448,7 +5448,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16">
@@ -5464,7 +5464,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18">
@@ -5472,7 +5472,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19">
@@ -5488,7 +5488,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21">
@@ -5504,7 +5504,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23">
@@ -5512,7 +5512,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24">
@@ -5528,7 +5528,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26">
@@ -5552,7 +5552,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29">
@@ -5568,7 +5568,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31">
@@ -5576,7 +5576,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32">
@@ -5592,7 +5592,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34">
@@ -5616,7 +5616,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37">
@@ -5656,7 +5656,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="42">
@@ -5680,7 +5680,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="45">
@@ -5768,7 +5768,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="56">
@@ -5792,7 +5792,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="59">
@@ -5816,7 +5816,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="62">
@@ -5824,7 +5824,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="63">
@@ -5840,7 +5840,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="65">
@@ -5848,7 +5848,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="66">
@@ -5864,7 +5864,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="68">
@@ -5872,7 +5872,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="69">
@@ -5888,7 +5888,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="71">
@@ -5896,7 +5896,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="72">
@@ -5904,7 +5904,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="73">
@@ -5912,7 +5912,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="74">
@@ -5920,7 +5920,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="75">
@@ -5928,7 +5928,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="76">
@@ -5936,7 +5936,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="77">
@@ -5944,7 +5944,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="78">
@@ -5952,7 +5952,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="79">
@@ -5960,7 +5960,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="80">
@@ -5968,7 +5968,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="81">
@@ -5976,7 +5976,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="82">
@@ -5984,7 +5984,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="83">
@@ -5992,7 +5992,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="84">
@@ -6000,7 +6000,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="85">
@@ -6008,7 +6008,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="86">
@@ -6016,7 +6016,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="87">
@@ -6024,7 +6024,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="88">
@@ -6032,7 +6032,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="89">
@@ -6040,7 +6040,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="90">
@@ -6048,7 +6048,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="91">
@@ -6056,7 +6056,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="92">
@@ -6064,7 +6064,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="93">
@@ -6072,7 +6072,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="94">
@@ -6080,7 +6080,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="95">
@@ -6088,7 +6088,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="96">
@@ -6096,7 +6096,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="97">
@@ -6104,7 +6104,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="98">
@@ -6112,7 +6112,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="99">
@@ -6120,7 +6120,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="100">
@@ -6128,7 +6128,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="101">
@@ -6136,7 +6136,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="102">
@@ -6144,7 +6144,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="103">
@@ -6152,7 +6152,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="104">
@@ -6192,7 +6192,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="109">
@@ -6200,7 +6200,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="110">
@@ -6208,7 +6208,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="111">
@@ -6216,7 +6216,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="112">
@@ -6224,7 +6224,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="113">
@@ -6232,7 +6232,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="114">
@@ -6240,7 +6240,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="115">
